--- a/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/城市居民消费价格分类指数(上年同期=100)(-2015).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/城市居民消费价格分类指数(上年同期=100)(-2015).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,30 +483,30 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="E2" t="n">
-        <v>96.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="F2" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="G2" t="n">
-        <v>106.6</v>
+        <v>104.9</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>99.40000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="J2" t="n">
         <v>96.90000000000001</v>
@@ -515,94 +515,94 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.09999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="D3" t="n">
         <v>100.6</v>
       </c>
       <c r="E3" t="n">
-        <v>96.7</v>
+        <v>95.7</v>
       </c>
       <c r="F3" t="n">
         <v>97.7</v>
       </c>
       <c r="G3" t="n">
-        <v>106.7</v>
+        <v>105.1</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>99.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>97.09999999999999</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.09999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="C4" t="n">
-        <v>100.1</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>100.8</v>
+        <v>100.5</v>
       </c>
       <c r="E4" t="n">
-        <v>96.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F4" t="n">
         <v>97.7</v>
       </c>
       <c r="G4" t="n">
-        <v>106.7</v>
+        <v>105.2</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="J4" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年1月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94.40000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="C5" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="E5" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="F5" t="n">
         <v>97.7</v>
       </c>
       <c r="G5" t="n">
-        <v>104.9</v>
+        <v>105.7</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>98.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J5" t="n">
         <v>96.90000000000001</v>
@@ -611,43 +611,43 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94.40000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="E6" t="n">
-        <v>95.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>97.7</v>
       </c>
       <c r="G6" t="n">
-        <v>105.1</v>
+        <v>106.1</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="J6" t="n">
-        <v>97.7</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C7" t="n">
         <v>99.40000000000001</v>
@@ -656,113 +656,113 @@
         <v>100.5</v>
       </c>
       <c r="E7" t="n">
-        <v>95.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="F7" t="n">
         <v>97.7</v>
       </c>
       <c r="G7" t="n">
-        <v>105.2</v>
+        <v>106.4</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>99</v>
+        <v>99.3</v>
       </c>
       <c r="J7" t="n">
-        <v>97.3</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94.2</v>
+        <v>94</v>
       </c>
       <c r="C8" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="D8" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="E8" t="n">
-        <v>95.8</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="F8" t="n">
         <v>97.7</v>
       </c>
       <c r="G8" t="n">
-        <v>105.7</v>
+        <v>106.5</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="J8" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="C9" t="n">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="E9" t="n">
-        <v>95.90000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="F9" t="n">
         <v>97.7</v>
       </c>
       <c r="G9" t="n">
-        <v>106.1</v>
+        <v>106.5</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="J9" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>94.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="C10" t="n">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D10" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="E10" t="n">
-        <v>96</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="G10" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="J10" t="n">
         <v>97</v>
@@ -771,62 +771,62 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>94</v>
       </c>
       <c r="C11" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="E11" t="n">
-        <v>96.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="G11" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="D12" t="n">
         <v>100.6</v>
       </c>
       <c r="E12" t="n">
-        <v>96.2</v>
+        <v>96.7</v>
       </c>
       <c r="F12" t="n">
         <v>97.7</v>
       </c>
       <c r="G12" t="n">
-        <v>106.5</v>
+        <v>106.7</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="J12" t="n">
         <v>97.09999999999999</v>
@@ -835,92 +835,92 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="D13" t="n">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
       <c r="E13" t="n">
-        <v>96.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
       <c r="G13" t="n">
-        <v>106.5</v>
+        <v>106.7</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="J13" t="n">
-        <v>97</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.09999999999999</v>
+        <v>98.79000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>99.40000000000001</v>
+        <v>100.0159</v>
       </c>
       <c r="D14" t="n">
-        <v>100.9</v>
+        <v>101.2944</v>
       </c>
       <c r="E14" t="n">
-        <v>107.9</v>
+        <v>110.1541</v>
       </c>
       <c r="F14" t="n">
-        <v>97.5</v>
+        <v>97.9609</v>
       </c>
       <c r="G14" t="n">
-        <v>101.9</v>
+        <v>103.5421</v>
       </c>
       <c r="H14" t="n">
-        <v>99.7</v>
+        <v>99.5476</v>
       </c>
       <c r="I14" t="n">
-        <v>97.7</v>
+        <v>98.2372</v>
       </c>
       <c r="J14" t="n">
-        <v>100.3</v>
+        <v>99.6681</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="E15" t="n">
-        <v>107.2</v>
+        <v>109.9</v>
       </c>
       <c r="F15" t="n">
-        <v>97.5</v>
+        <v>97.8</v>
       </c>
       <c r="G15" t="n">
-        <v>101.8</v>
+        <v>103.5</v>
       </c>
       <c r="H15" t="n">
         <v>99.7</v>
@@ -929,202 +929,202 @@
         <v>97.8</v>
       </c>
       <c r="J15" t="n">
-        <v>100.2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C16" t="n">
-        <v>99.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="E16" t="n">
-        <v>106.7</v>
+        <v>109.9</v>
       </c>
       <c r="F16" t="n">
-        <v>97.5</v>
+        <v>97.8</v>
       </c>
       <c r="G16" t="n">
-        <v>101.7</v>
+        <v>103.4</v>
       </c>
       <c r="H16" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>100.1</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年1月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>98.79000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>100.0159</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>101.2944</v>
+        <v>100.9</v>
       </c>
       <c r="E17" t="n">
-        <v>110.1541</v>
+        <v>110</v>
       </c>
       <c r="F17" t="n">
-        <v>97.9609</v>
+        <v>97.7</v>
       </c>
       <c r="G17" t="n">
-        <v>103.5421</v>
+        <v>103.1</v>
       </c>
       <c r="H17" t="n">
-        <v>99.5476</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>98.2372</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>99.6681</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D18" t="n">
-        <v>100.6</v>
+        <v>101.1</v>
       </c>
       <c r="E18" t="n">
-        <v>109.9</v>
+        <v>110</v>
       </c>
       <c r="F18" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>103.5</v>
+        <v>102.9</v>
       </c>
       <c r="H18" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="I18" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="J18" t="n">
         <v>99.7</v>
-      </c>
-      <c r="I18" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.2</v>
+        <v>98.8</v>
       </c>
       <c r="C19" t="n">
-        <v>99.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="D19" t="n">
-        <v>100.6</v>
+        <v>101.2</v>
       </c>
       <c r="E19" t="n">
         <v>109.9</v>
       </c>
       <c r="F19" t="n">
-        <v>97.8</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>103.4</v>
+        <v>102.6</v>
       </c>
       <c r="H19" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="J19" t="n">
-        <v>98.3</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="C20" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="E20" t="n">
-        <v>110</v>
+        <v>109.8</v>
       </c>
       <c r="F20" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>103.1</v>
+        <v>102.4</v>
       </c>
       <c r="H20" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="J20" t="n">
-        <v>99.09999999999999</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>98.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="C21" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="D21" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="E21" t="n">
-        <v>110</v>
+        <v>109.8</v>
       </c>
       <c r="F21" t="n">
         <v>97.59999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>102.9</v>
+        <v>102.2</v>
       </c>
       <c r="H21" t="n">
         <v>99.59999999999999</v>
@@ -1133,32 +1133,32 @@
         <v>97.7</v>
       </c>
       <c r="J21" t="n">
-        <v>99.7</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>101.2</v>
+        <v>101</v>
       </c>
       <c r="E22" t="n">
-        <v>109.9</v>
+        <v>108.7</v>
       </c>
       <c r="F22" t="n">
         <v>97.59999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>102.6</v>
+        <v>102</v>
       </c>
       <c r="H22" t="n">
         <v>99.59999999999999</v>
@@ -1167,72 +1167,72 @@
         <v>97.7</v>
       </c>
       <c r="J22" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="E23" t="n">
-        <v>109.8</v>
+        <v>107.9</v>
       </c>
       <c r="F23" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="G23" t="n">
-        <v>102.4</v>
+        <v>101.9</v>
       </c>
       <c r="H23" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="I23" t="n">
         <v>97.7</v>
       </c>
       <c r="J23" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="D24" t="n">
-        <v>101.2</v>
+        <v>100.8</v>
       </c>
       <c r="E24" t="n">
-        <v>109.8</v>
+        <v>107.2</v>
       </c>
       <c r="F24" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="G24" t="n">
-        <v>102.2</v>
+        <v>101.8</v>
       </c>
       <c r="H24" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="I24" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="J24" t="n">
         <v>100.2</v>
@@ -1241,100 +1241,100 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>99.09999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="D25" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="E25" t="n">
-        <v>108.7</v>
+        <v>106.7</v>
       </c>
       <c r="F25" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="G25" t="n">
-        <v>102</v>
+        <v>101.7</v>
       </c>
       <c r="H25" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="I25" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="C26" t="n">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="E26" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="F26" t="n">
         <v>97.3</v>
       </c>
       <c r="G26" t="n">
-        <v>99.7</v>
+        <v>100.5</v>
       </c>
       <c r="H26" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="I26" t="n">
-        <v>97.5</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>99.3</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98</v>
+        <v>98.8</v>
       </c>
       <c r="C27" t="n">
-        <v>98</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>99</v>
+        <v>99.3</v>
       </c>
       <c r="E27" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="F27" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>99.7</v>
+        <v>100.4</v>
       </c>
       <c r="H27" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="I27" t="n">
-        <v>97.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="J27" t="n">
         <v>99.40000000000001</v>
@@ -1343,128 +1343,128 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="D28" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E28" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H28" t="n">
         <v>100.2</v>
       </c>
-      <c r="F28" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="G28" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="H28" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="I28" t="n">
-        <v>97.3</v>
+        <v>97.7</v>
       </c>
       <c r="J28" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年1月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E29" t="n">
         <v>100</v>
       </c>
       <c r="F29" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="G29" t="n">
-        <v>100.5</v>
+        <v>99.8</v>
       </c>
       <c r="H29" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="I29" t="n">
-        <v>98.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="J29" t="n">
-        <v>98.09999999999999</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>98.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>98.40000000000001</v>
+        <v>98</v>
       </c>
       <c r="D30" t="n">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="F30" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="G30" t="n">
-        <v>100.4</v>
+        <v>99.7</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="I30" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
       <c r="J30" t="n">
-        <v>99.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B31" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>98</v>
+      </c>
+      <c r="D31" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="C31" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="D31" t="n">
-        <v>99.09999999999999</v>
-      </c>
       <c r="E31" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="F31" t="n">
         <v>97.40000000000001</v>
       </c>
       <c r="G31" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H31" t="n">
         <v>100.2</v>
@@ -1473,17 +1473,17 @@
         <v>97.7</v>
       </c>
       <c r="J31" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98.59999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="C32" t="n">
         <v>98.09999999999999</v>
@@ -1495,72 +1495,72 @@
         <v>100</v>
       </c>
       <c r="F32" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="H32" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="I32" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="E33" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="F33" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="H33" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="I33" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C34" t="n">
         <v>98</v>
       </c>
       <c r="D34" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="E34" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="F34" t="n">
         <v>97.40000000000001</v>
@@ -1569,91 +1569,91 @@
         <v>99.59999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="I34" t="n">
-        <v>97.7</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="D35" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="E35" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="H35" t="n">
         <v>100</v>
       </c>
-      <c r="F35" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="G35" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="H35" t="n">
-        <v>100.1</v>
-      </c>
       <c r="I35" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="J35" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="C36" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="D36" t="n">
         <v>99</v>
       </c>
       <c r="E36" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="F36" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="H36" t="n">
+        <v>100</v>
+      </c>
+      <c r="I36" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="G36" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="H36" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>97.59999999999999</v>
-      </c>
       <c r="J36" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="C37" t="n">
         <v>98</v>
@@ -1662,5326 +1662,5326 @@
         <v>99</v>
       </c>
       <c r="E37" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="F37" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="G37" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="H37" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>97.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="J37" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.5</v>
+        <v>98.34</v>
       </c>
       <c r="C38" t="n">
-        <v>99.7</v>
+        <v>97.84</v>
       </c>
       <c r="D38" t="n">
-        <v>100.6</v>
+        <v>100.44</v>
       </c>
       <c r="E38" t="n">
-        <v>100.5</v>
+        <v>100.91</v>
       </c>
       <c r="F38" t="n">
-        <v>97</v>
+        <v>96.92</v>
       </c>
       <c r="G38" t="n">
-        <v>102.8</v>
+        <v>101.88</v>
       </c>
       <c r="H38" t="n">
-        <v>99.59999999999999</v>
+        <v>99.42</v>
       </c>
       <c r="I38" t="n">
-        <v>97.3</v>
+        <v>96.59</v>
       </c>
       <c r="J38" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>97.4105</v>
+        <v>98.1014</v>
       </c>
       <c r="C39" t="n">
-        <v>99.7782</v>
+        <v>97.8252</v>
       </c>
       <c r="D39" t="n">
-        <v>100.7918</v>
+        <v>100.2974</v>
       </c>
       <c r="E39" t="n">
-        <v>100.5295</v>
+        <v>100.7261</v>
       </c>
       <c r="F39" t="n">
-        <v>96.9859</v>
+        <v>96.846</v>
       </c>
       <c r="G39" t="n">
-        <v>102.8233</v>
+        <v>101.8412</v>
       </c>
       <c r="H39" t="n">
-        <v>99.6759</v>
+        <v>99.3764</v>
       </c>
       <c r="I39" t="n">
-        <v>97.3764</v>
+        <v>96.62609999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>103.0227</v>
+        <v>102.4946</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.38039999999999</v>
+        <v>98.03619999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>99.82850000000001</v>
+        <v>97.9716</v>
       </c>
       <c r="D40" t="n">
-        <v>100.9493</v>
+        <v>100.5358</v>
       </c>
       <c r="E40" t="n">
-        <v>100.52</v>
+        <v>100.6494</v>
       </c>
       <c r="F40" t="n">
-        <v>97.01649999999999</v>
+        <v>96.83029999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>102.8339</v>
+        <v>102.3956</v>
       </c>
       <c r="H40" t="n">
-        <v>99.7822</v>
+        <v>99.35120000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>97.4276</v>
+        <v>96.75069999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>103.4464</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98.34</v>
+        <v>97.9439</v>
       </c>
       <c r="C41" t="n">
-        <v>97.84</v>
+        <v>98.4427</v>
       </c>
       <c r="D41" t="n">
-        <v>100.44</v>
+        <v>100.6601</v>
       </c>
       <c r="E41" t="n">
-        <v>100.91</v>
+        <v>100.5886</v>
       </c>
       <c r="F41" t="n">
-        <v>96.92</v>
+        <v>96.825</v>
       </c>
       <c r="G41" t="n">
-        <v>101.88</v>
+        <v>102.5816</v>
       </c>
       <c r="H41" t="n">
-        <v>99.42</v>
+        <v>99.34739999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>96.59</v>
+        <v>96.8973</v>
       </c>
       <c r="J41" t="n">
-        <v>102.7</v>
+        <v>103.1245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>98.1014</v>
+        <v>97.8201</v>
       </c>
       <c r="C42" t="n">
-        <v>97.8252</v>
+        <v>99.0063</v>
       </c>
       <c r="D42" t="n">
-        <v>100.2974</v>
+        <v>100.6322</v>
       </c>
       <c r="E42" t="n">
-        <v>100.7261</v>
+        <v>100.5065</v>
       </c>
       <c r="F42" t="n">
-        <v>96.846</v>
+        <v>96.8717</v>
       </c>
       <c r="G42" t="n">
-        <v>101.8412</v>
+        <v>102.6541</v>
       </c>
       <c r="H42" t="n">
-        <v>99.3764</v>
+        <v>99.3603</v>
       </c>
       <c r="I42" t="n">
-        <v>96.62609999999999</v>
+        <v>96.9692</v>
       </c>
       <c r="J42" t="n">
-        <v>102.4946</v>
+        <v>102.9046</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.03619999999999</v>
+        <v>97.7</v>
       </c>
       <c r="C43" t="n">
-        <v>97.9716</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>100.5358</v>
+        <v>100.5</v>
       </c>
       <c r="E43" t="n">
-        <v>100.6494</v>
+        <v>100.6</v>
       </c>
       <c r="F43" t="n">
-        <v>96.83029999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3956</v>
+        <v>102.8</v>
       </c>
       <c r="H43" t="n">
-        <v>99.35120000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I43" t="n">
-        <v>96.75069999999999</v>
+        <v>97</v>
       </c>
       <c r="J43" t="n">
-        <v>102.9</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.9439</v>
+        <v>97.6348</v>
       </c>
       <c r="C44" t="n">
-        <v>98.4427</v>
+        <v>99.5224</v>
       </c>
       <c r="D44" t="n">
-        <v>100.6601</v>
+        <v>100.4808</v>
       </c>
       <c r="E44" t="n">
-        <v>100.5886</v>
+        <v>100.5332</v>
       </c>
       <c r="F44" t="n">
-        <v>96.825</v>
+        <v>96.9171</v>
       </c>
       <c r="G44" t="n">
-        <v>102.5816</v>
+        <v>102.8727</v>
       </c>
       <c r="H44" t="n">
-        <v>99.34739999999999</v>
+        <v>99.4709</v>
       </c>
       <c r="I44" t="n">
-        <v>96.8973</v>
+        <v>97.102</v>
       </c>
       <c r="J44" t="n">
-        <v>103.1245</v>
+        <v>102.2176</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>97.8201</v>
+        <v>97.56740000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>99.0063</v>
+        <v>99.60720000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>100.6322</v>
+        <v>100.4956</v>
       </c>
       <c r="E45" t="n">
-        <v>100.5065</v>
+        <v>100.5478</v>
       </c>
       <c r="F45" t="n">
-        <v>96.8717</v>
+        <v>96.925</v>
       </c>
       <c r="G45" t="n">
-        <v>102.6541</v>
+        <v>102.9078</v>
       </c>
       <c r="H45" t="n">
-        <v>99.3603</v>
+        <v>99.5138</v>
       </c>
       <c r="I45" t="n">
-        <v>96.9692</v>
+        <v>97.17749999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>102.9046</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.7</v>
+        <v>97.5206</v>
       </c>
       <c r="C46" t="n">
-        <v>99.40000000000001</v>
+        <v>99.6939</v>
       </c>
       <c r="D46" t="n">
-        <v>100.5</v>
+        <v>100.535</v>
       </c>
       <c r="E46" t="n">
-        <v>100.6</v>
+        <v>100.5335</v>
       </c>
       <c r="F46" t="n">
-        <v>96.90000000000001</v>
+        <v>96.94119999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>102.8</v>
+        <v>102.8776</v>
       </c>
       <c r="H46" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5521</v>
       </c>
       <c r="I46" t="n">
-        <v>97</v>
+        <v>97.2343</v>
       </c>
       <c r="J46" t="n">
-        <v>102.4</v>
+        <v>102.3047</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>97.6348</v>
+        <v>97.5</v>
       </c>
       <c r="C47" t="n">
-        <v>99.5224</v>
+        <v>99.7</v>
       </c>
       <c r="D47" t="n">
-        <v>100.4808</v>
+        <v>100.6</v>
       </c>
       <c r="E47" t="n">
-        <v>100.5332</v>
+        <v>100.5</v>
       </c>
       <c r="F47" t="n">
-        <v>96.9171</v>
+        <v>97</v>
       </c>
       <c r="G47" t="n">
-        <v>102.8727</v>
+        <v>102.8</v>
       </c>
       <c r="H47" t="n">
-        <v>99.4709</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I47" t="n">
-        <v>97.102</v>
+        <v>97.3</v>
       </c>
       <c r="J47" t="n">
-        <v>102.2176</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>97.56740000000001</v>
+        <v>97.4105</v>
       </c>
       <c r="C48" t="n">
-        <v>99.60720000000001</v>
+        <v>99.7782</v>
       </c>
       <c r="D48" t="n">
-        <v>100.4956</v>
+        <v>100.7918</v>
       </c>
       <c r="E48" t="n">
-        <v>100.5478</v>
+        <v>100.5295</v>
       </c>
       <c r="F48" t="n">
-        <v>96.925</v>
+        <v>96.9859</v>
       </c>
       <c r="G48" t="n">
-        <v>102.9078</v>
+        <v>102.8233</v>
       </c>
       <c r="H48" t="n">
-        <v>99.5138</v>
+        <v>99.6759</v>
       </c>
       <c r="I48" t="n">
-        <v>97.17749999999999</v>
+        <v>97.3764</v>
       </c>
       <c r="J48" t="n">
-        <v>102.2</v>
+        <v>103.0227</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>97.5206</v>
+        <v>97.38039999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>99.6939</v>
+        <v>99.82850000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>100.535</v>
+        <v>100.9493</v>
       </c>
       <c r="E49" t="n">
-        <v>100.5335</v>
+        <v>100.52</v>
       </c>
       <c r="F49" t="n">
-        <v>96.94119999999999</v>
+        <v>97.01649999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>102.8776</v>
+        <v>102.8339</v>
       </c>
       <c r="H49" t="n">
-        <v>99.5521</v>
+        <v>99.7822</v>
       </c>
       <c r="I49" t="n">
-        <v>97.2343</v>
+        <v>97.4276</v>
       </c>
       <c r="J49" t="n">
-        <v>102.3047</v>
+        <v>103.4464</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>97.87990000000001</v>
+        <v>97.6942</v>
       </c>
       <c r="C50" t="n">
-        <v>99.22450000000001</v>
+        <v>100.8288</v>
       </c>
       <c r="D50" t="n">
-        <v>103.5792</v>
+        <v>102.516</v>
       </c>
       <c r="E50" t="n">
-        <v>100.7606</v>
+        <v>101.1592</v>
       </c>
       <c r="F50" t="n">
-        <v>98.0842</v>
+        <v>97.55419999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>103.8656</v>
+        <v>101.9852</v>
       </c>
       <c r="H50" t="n">
-        <v>101.2536</v>
+        <v>101.0112</v>
       </c>
       <c r="I50" t="n">
-        <v>98.5487</v>
+        <v>98.2796</v>
       </c>
       <c r="J50" t="n">
-        <v>109.9247</v>
+        <v>107.1453</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>97.89919999999999</v>
+        <v>97.425</v>
       </c>
       <c r="C51" t="n">
-        <v>99.1915</v>
+        <v>100.8219</v>
       </c>
       <c r="D51" t="n">
-        <v>103.4713</v>
+        <v>101.9647</v>
       </c>
       <c r="E51" t="n">
-        <v>100.7869</v>
+        <v>100.3404</v>
       </c>
       <c r="F51" t="n">
-        <v>98.1157</v>
+        <v>97.627</v>
       </c>
       <c r="G51" t="n">
-        <v>104.1154</v>
+        <v>102.0645</v>
       </c>
       <c r="H51" t="n">
-        <v>101.2325</v>
+        <v>100.9915</v>
       </c>
       <c r="I51" t="n">
-        <v>98.5082</v>
+        <v>98.5384</v>
       </c>
       <c r="J51" t="n">
-        <v>109.508</v>
+        <v>105.8112</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>97.89709999999999</v>
+        <v>97.40519999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>99.1776</v>
+        <v>100.8273</v>
       </c>
       <c r="D52" t="n">
-        <v>103.3425</v>
+        <v>102.1015</v>
       </c>
       <c r="E52" t="n">
-        <v>100.8132</v>
+        <v>100.3471</v>
       </c>
       <c r="F52" t="n">
-        <v>98.1447</v>
+        <v>97.68049999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>104.2515</v>
+        <v>102.1601</v>
       </c>
       <c r="H52" t="n">
-        <v>101.1785</v>
+        <v>101.0323</v>
       </c>
       <c r="I52" t="n">
-        <v>98.48779999999999</v>
+        <v>98.7364</v>
       </c>
       <c r="J52" t="n">
-        <v>109.0707</v>
+        <v>106.0968</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>97.6942</v>
+        <v>97.49120000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>100.8288</v>
+        <v>100.4394</v>
       </c>
       <c r="D53" t="n">
-        <v>102.516</v>
+        <v>102.3773</v>
       </c>
       <c r="E53" t="n">
-        <v>101.1592</v>
+        <v>100.469</v>
       </c>
       <c r="F53" t="n">
-        <v>97.55419999999999</v>
+        <v>97.7406</v>
       </c>
       <c r="G53" t="n">
-        <v>101.9852</v>
+        <v>102.3826</v>
       </c>
       <c r="H53" t="n">
-        <v>101.0112</v>
+        <v>101.0552</v>
       </c>
       <c r="I53" t="n">
-        <v>98.2796</v>
+        <v>98.7379</v>
       </c>
       <c r="J53" t="n">
-        <v>107.1453</v>
+        <v>106.8229</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>97.425</v>
+        <v>97.5994</v>
       </c>
       <c r="C54" t="n">
-        <v>100.8219</v>
+        <v>99.9577</v>
       </c>
       <c r="D54" t="n">
-        <v>101.9647</v>
+        <v>102.6844</v>
       </c>
       <c r="E54" t="n">
-        <v>100.3404</v>
+        <v>100.6171</v>
       </c>
       <c r="F54" t="n">
-        <v>97.627</v>
+        <v>97.78230000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>102.0645</v>
+        <v>102.6715</v>
       </c>
       <c r="H54" t="n">
-        <v>100.9915</v>
+        <v>101.0843</v>
       </c>
       <c r="I54" t="n">
-        <v>98.5384</v>
+        <v>98.72410000000001</v>
       </c>
       <c r="J54" t="n">
-        <v>105.8112</v>
+        <v>107.643</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>97.40519999999999</v>
+        <v>97.6848</v>
       </c>
       <c r="C55" t="n">
-        <v>100.8273</v>
+        <v>99.6228</v>
       </c>
       <c r="D55" t="n">
-        <v>102.1015</v>
+        <v>103.0006</v>
       </c>
       <c r="E55" t="n">
-        <v>100.3471</v>
+        <v>100.6012</v>
       </c>
       <c r="F55" t="n">
-        <v>97.68049999999999</v>
+        <v>97.843</v>
       </c>
       <c r="G55" t="n">
-        <v>102.1601</v>
+        <v>102.9085</v>
       </c>
       <c r="H55" t="n">
-        <v>101.0323</v>
+        <v>101.1244</v>
       </c>
       <c r="I55" t="n">
-        <v>98.7364</v>
+        <v>98.7059</v>
       </c>
       <c r="J55" t="n">
-        <v>106.0968</v>
+        <v>108.5671</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>97.49120000000001</v>
+        <v>97.7589</v>
       </c>
       <c r="C56" t="n">
-        <v>100.4394</v>
+        <v>99.4444</v>
       </c>
       <c r="D56" t="n">
-        <v>102.3773</v>
+        <v>103.2691</v>
       </c>
       <c r="E56" t="n">
-        <v>100.469</v>
+        <v>100.6826</v>
       </c>
       <c r="F56" t="n">
-        <v>97.7406</v>
+        <v>97.9265</v>
       </c>
       <c r="G56" t="n">
-        <v>102.3826</v>
+        <v>103.0909</v>
       </c>
       <c r="H56" t="n">
-        <v>101.0552</v>
+        <v>101.177</v>
       </c>
       <c r="I56" t="n">
-        <v>98.7379</v>
+        <v>98.6634</v>
       </c>
       <c r="J56" t="n">
-        <v>106.8229</v>
+        <v>109.3019</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>97.5994</v>
+        <v>97.81399999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>99.9577</v>
+        <v>99.33110000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>102.6844</v>
+        <v>103.453</v>
       </c>
       <c r="E57" t="n">
-        <v>100.6171</v>
+        <v>100.7209</v>
       </c>
       <c r="F57" t="n">
-        <v>97.78230000000001</v>
+        <v>97.98820000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>102.6715</v>
+        <v>103.3434</v>
       </c>
       <c r="H57" t="n">
-        <v>101.0843</v>
+        <v>101.218</v>
       </c>
       <c r="I57" t="n">
-        <v>98.72410000000001</v>
+        <v>98.6172</v>
       </c>
       <c r="J57" t="n">
-        <v>107.643</v>
+        <v>109.7593</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>97.6848</v>
+        <v>97.8549</v>
       </c>
       <c r="C58" t="n">
-        <v>99.6228</v>
+        <v>99.2638</v>
       </c>
       <c r="D58" t="n">
-        <v>103.0006</v>
+        <v>103.5707</v>
       </c>
       <c r="E58" t="n">
-        <v>100.6012</v>
+        <v>100.7445</v>
       </c>
       <c r="F58" t="n">
-        <v>97.843</v>
+        <v>98.041</v>
       </c>
       <c r="G58" t="n">
-        <v>102.9085</v>
+        <v>103.5873</v>
       </c>
       <c r="H58" t="n">
-        <v>101.1244</v>
+        <v>101.2426</v>
       </c>
       <c r="I58" t="n">
-        <v>98.7059</v>
+        <v>98.592</v>
       </c>
       <c r="J58" t="n">
-        <v>108.5671</v>
+        <v>110.0076</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>97.7589</v>
+        <v>97.87990000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>99.4444</v>
+        <v>99.22450000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>103.2691</v>
+        <v>103.5792</v>
       </c>
       <c r="E59" t="n">
-        <v>100.6826</v>
+        <v>100.7606</v>
       </c>
       <c r="F59" t="n">
-        <v>97.9265</v>
+        <v>98.0842</v>
       </c>
       <c r="G59" t="n">
-        <v>103.0909</v>
+        <v>103.8656</v>
       </c>
       <c r="H59" t="n">
-        <v>101.177</v>
+        <v>101.2536</v>
       </c>
       <c r="I59" t="n">
-        <v>98.6634</v>
+        <v>98.5487</v>
       </c>
       <c r="J59" t="n">
-        <v>109.3019</v>
+        <v>109.9247</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>97.81399999999999</v>
+        <v>97.89919999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>99.33110000000001</v>
+        <v>99.1915</v>
       </c>
       <c r="D60" t="n">
-        <v>103.453</v>
+        <v>103.4713</v>
       </c>
       <c r="E60" t="n">
-        <v>100.7209</v>
+        <v>100.7869</v>
       </c>
       <c r="F60" t="n">
-        <v>97.98820000000001</v>
+        <v>98.1157</v>
       </c>
       <c r="G60" t="n">
-        <v>103.3434</v>
+        <v>104.1154</v>
       </c>
       <c r="H60" t="n">
-        <v>101.218</v>
+        <v>101.2325</v>
       </c>
       <c r="I60" t="n">
-        <v>98.6172</v>
+        <v>98.5082</v>
       </c>
       <c r="J60" t="n">
-        <v>109.7593</v>
+        <v>109.508</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>97.8549</v>
+        <v>97.89709999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>99.2638</v>
+        <v>99.1776</v>
       </c>
       <c r="D61" t="n">
-        <v>103.5707</v>
+        <v>103.3425</v>
       </c>
       <c r="E61" t="n">
-        <v>100.7445</v>
+        <v>100.8132</v>
       </c>
       <c r="F61" t="n">
-        <v>98.041</v>
+        <v>98.1447</v>
       </c>
       <c r="G61" t="n">
-        <v>103.5873</v>
+        <v>104.2515</v>
       </c>
       <c r="H61" t="n">
-        <v>101.2426</v>
+        <v>101.1785</v>
       </c>
       <c r="I61" t="n">
-        <v>98.592</v>
+        <v>98.48779999999999</v>
       </c>
       <c r="J61" t="n">
-        <v>110.0076</v>
+        <v>109.0707</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>98.286</v>
+        <v>97.25579999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>99.5</v>
+        <v>98.9346</v>
       </c>
       <c r="D62" t="n">
-        <v>101.6287</v>
+        <v>101.4336</v>
       </c>
       <c r="E62" t="n">
-        <v>101.4339</v>
+        <v>100.2013</v>
       </c>
       <c r="F62" t="n">
-        <v>99.53700000000001</v>
+        <v>98.6614</v>
       </c>
       <c r="G62" t="n">
-        <v>105.7277</v>
+        <v>105.4786</v>
       </c>
       <c r="H62" t="n">
-        <v>100.3411</v>
+        <v>100.3161</v>
       </c>
       <c r="I62" t="n">
-        <v>97.8004</v>
+        <v>98.30410000000001</v>
       </c>
       <c r="J62" t="n">
-        <v>103.2616</v>
+        <v>103.6957</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>98.3545</v>
+        <v>97.803</v>
       </c>
       <c r="C63" t="n">
-        <v>99.55710000000001</v>
+        <v>99.0067</v>
       </c>
       <c r="D63" t="n">
-        <v>101.5964</v>
+        <v>102.5303</v>
       </c>
       <c r="E63" t="n">
-        <v>101.3628</v>
+        <v>101.3312</v>
       </c>
       <c r="F63" t="n">
-        <v>99.6276</v>
+        <v>98.7817</v>
       </c>
       <c r="G63" t="n">
-        <v>105.6354</v>
+        <v>105.545</v>
       </c>
       <c r="H63" t="n">
-        <v>100.3272</v>
+        <v>100.3742</v>
       </c>
       <c r="I63" t="n">
-        <v>97.8882</v>
+        <v>97.9654</v>
       </c>
       <c r="J63" t="n">
-        <v>103.1588</v>
+        <v>106.2719</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>98.4152</v>
+        <v>97.92230000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>99.6203</v>
+        <v>99.0188</v>
       </c>
       <c r="D64" t="n">
-        <v>101.5936</v>
+        <v>102.4548</v>
       </c>
       <c r="E64" t="n">
-        <v>101.2942</v>
+        <v>101.4283</v>
       </c>
       <c r="F64" t="n">
-        <v>99.70999999999999</v>
+        <v>98.873</v>
       </c>
       <c r="G64" t="n">
-        <v>105.5845</v>
+        <v>105.6434</v>
       </c>
       <c r="H64" t="n">
-        <v>100.3126</v>
+        <v>100.3933</v>
       </c>
       <c r="I64" t="n">
-        <v>97.9815</v>
+        <v>97.6536</v>
       </c>
       <c r="J64" t="n">
-        <v>103.1273</v>
+        <v>106.0205</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>97.25579999999999</v>
+        <v>97.9427</v>
       </c>
       <c r="C65" t="n">
-        <v>98.9346</v>
+        <v>99.02200000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>101.4336</v>
+        <v>102.2148</v>
       </c>
       <c r="E65" t="n">
-        <v>100.2013</v>
+        <v>101.4941</v>
       </c>
       <c r="F65" t="n">
-        <v>98.6614</v>
+        <v>98.96559999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>105.4786</v>
+        <v>105.7315</v>
       </c>
       <c r="H65" t="n">
-        <v>100.3161</v>
+        <v>100.4027</v>
       </c>
       <c r="I65" t="n">
-        <v>98.30410000000001</v>
+        <v>97.5321</v>
       </c>
       <c r="J65" t="n">
-        <v>103.6957</v>
+        <v>105.2931</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>97.803</v>
+        <v>97.95650000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>99.0067</v>
+        <v>99.0423</v>
       </c>
       <c r="D66" t="n">
-        <v>102.5303</v>
+        <v>102.0563</v>
       </c>
       <c r="E66" t="n">
-        <v>101.3312</v>
+        <v>101.5253</v>
       </c>
       <c r="F66" t="n">
-        <v>98.7817</v>
+        <v>99.0616</v>
       </c>
       <c r="G66" t="n">
-        <v>105.545</v>
+        <v>105.7829</v>
       </c>
       <c r="H66" t="n">
-        <v>100.3742</v>
+        <v>100.3961</v>
       </c>
       <c r="I66" t="n">
-        <v>97.9654</v>
+        <v>97.5067</v>
       </c>
       <c r="J66" t="n">
-        <v>106.2719</v>
+        <v>104.7956</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>97.92230000000001</v>
+        <v>97.986</v>
       </c>
       <c r="C67" t="n">
-        <v>99.0188</v>
+        <v>99.1172</v>
       </c>
       <c r="D67" t="n">
-        <v>102.4548</v>
+        <v>101.9272</v>
       </c>
       <c r="E67" t="n">
-        <v>101.4283</v>
+        <v>101.5316</v>
       </c>
       <c r="F67" t="n">
-        <v>98.873</v>
+        <v>99.1799</v>
       </c>
       <c r="G67" t="n">
-        <v>105.6434</v>
+        <v>105.827</v>
       </c>
       <c r="H67" t="n">
-        <v>100.3933</v>
+        <v>100.3813</v>
       </c>
       <c r="I67" t="n">
-        <v>97.6536</v>
+        <v>97.5411</v>
       </c>
       <c r="J67" t="n">
-        <v>106.0205</v>
+        <v>104.3498</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>97.9427</v>
+        <v>98.05289999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>99.02200000000001</v>
+        <v>99.2252</v>
       </c>
       <c r="D68" t="n">
-        <v>102.2148</v>
+        <v>101.8802</v>
       </c>
       <c r="E68" t="n">
-        <v>101.4941</v>
+        <v>101.5728</v>
       </c>
       <c r="F68" t="n">
-        <v>98.96559999999999</v>
+        <v>99.2697</v>
       </c>
       <c r="G68" t="n">
-        <v>105.7315</v>
+        <v>105.8757</v>
       </c>
       <c r="H68" t="n">
-        <v>100.4027</v>
+        <v>100.3675</v>
       </c>
       <c r="I68" t="n">
-        <v>97.5321</v>
+        <v>97.5844</v>
       </c>
       <c r="J68" t="n">
-        <v>105.2931</v>
+        <v>104.1033</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>97.95650000000001</v>
+        <v>98.13930000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>99.0423</v>
+        <v>99.3185</v>
       </c>
       <c r="D69" t="n">
-        <v>102.0563</v>
+        <v>101.7892</v>
       </c>
       <c r="E69" t="n">
-        <v>101.5253</v>
+        <v>101.6264</v>
       </c>
       <c r="F69" t="n">
-        <v>99.0616</v>
+        <v>99.36020000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>105.7829</v>
+        <v>105.8395</v>
       </c>
       <c r="H69" t="n">
-        <v>100.3961</v>
+        <v>100.358</v>
       </c>
       <c r="I69" t="n">
-        <v>97.5067</v>
+        <v>97.6361</v>
       </c>
       <c r="J69" t="n">
-        <v>104.7956</v>
+        <v>103.757</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>97.986</v>
+        <v>98.21210000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>99.1172</v>
+        <v>99.42059999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>101.9272</v>
+        <v>101.6798</v>
       </c>
       <c r="E70" t="n">
-        <v>101.5316</v>
+        <v>101.5177</v>
       </c>
       <c r="F70" t="n">
-        <v>99.1799</v>
+        <v>99.44750000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>105.827</v>
+        <v>105.7962</v>
       </c>
       <c r="H70" t="n">
-        <v>100.3813</v>
+        <v>100.3526</v>
       </c>
       <c r="I70" t="n">
-        <v>97.5411</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="J70" t="n">
-        <v>104.3498</v>
+        <v>103.4266</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>98.05289999999999</v>
+        <v>98.286</v>
       </c>
       <c r="C71" t="n">
-        <v>99.2252</v>
+        <v>99.5</v>
       </c>
       <c r="D71" t="n">
-        <v>101.8802</v>
+        <v>101.6287</v>
       </c>
       <c r="E71" t="n">
-        <v>101.5728</v>
+        <v>101.4339</v>
       </c>
       <c r="F71" t="n">
-        <v>99.2697</v>
+        <v>99.53700000000001</v>
       </c>
       <c r="G71" t="n">
-        <v>105.8757</v>
+        <v>105.7277</v>
       </c>
       <c r="H71" t="n">
-        <v>100.3675</v>
+        <v>100.3411</v>
       </c>
       <c r="I71" t="n">
-        <v>97.5844</v>
+        <v>97.8004</v>
       </c>
       <c r="J71" t="n">
-        <v>104.1033</v>
+        <v>103.2616</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>98.13930000000001</v>
+        <v>98.3545</v>
       </c>
       <c r="C72" t="n">
-        <v>99.3185</v>
+        <v>99.55710000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>101.7892</v>
+        <v>101.5964</v>
       </c>
       <c r="E72" t="n">
-        <v>101.6264</v>
+        <v>101.3628</v>
       </c>
       <c r="F72" t="n">
-        <v>99.36020000000001</v>
+        <v>99.6276</v>
       </c>
       <c r="G72" t="n">
-        <v>105.8395</v>
+        <v>105.6354</v>
       </c>
       <c r="H72" t="n">
-        <v>100.358</v>
+        <v>100.3272</v>
       </c>
       <c r="I72" t="n">
-        <v>97.6361</v>
+        <v>97.8882</v>
       </c>
       <c r="J72" t="n">
-        <v>103.757</v>
+        <v>103.1588</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>98.21210000000001</v>
+        <v>98.4152</v>
       </c>
       <c r="C73" t="n">
-        <v>99.42059999999999</v>
+        <v>99.6203</v>
       </c>
       <c r="D73" t="n">
-        <v>101.6798</v>
+        <v>101.5936</v>
       </c>
       <c r="E73" t="n">
-        <v>101.5177</v>
+        <v>101.2942</v>
       </c>
       <c r="F73" t="n">
-        <v>99.44750000000001</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>105.7962</v>
+        <v>105.5845</v>
       </c>
       <c r="H73" t="n">
-        <v>100.3526</v>
+        <v>100.3126</v>
       </c>
       <c r="I73" t="n">
-        <v>97.70999999999999</v>
+        <v>97.9815</v>
       </c>
       <c r="J73" t="n">
-        <v>103.4266</v>
+        <v>103.1273</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>99.22601874999999</v>
+        <v>99.03797588</v>
       </c>
       <c r="C74" t="n">
-        <v>100.88970362</v>
+        <v>100.22446859</v>
       </c>
       <c r="D74" t="n">
-        <v>101.32439129</v>
+        <v>101.96105134</v>
       </c>
       <c r="E74" t="n">
-        <v>100.10669456</v>
+        <v>101.01462</v>
       </c>
       <c r="F74" t="n">
-        <v>101.18144055</v>
+        <v>100.57678635</v>
       </c>
       <c r="G74" t="n">
-        <v>104.73218673</v>
+        <v>105.23364393</v>
       </c>
       <c r="H74" t="n">
-        <v>100.69205148</v>
+        <v>100.38257559</v>
       </c>
       <c r="I74" t="n">
-        <v>99.25325148</v>
+        <v>98.13503337</v>
       </c>
       <c r="J74" t="n">
-        <v>102.04967358</v>
+        <v>104.13725589</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>99.24874652</v>
+        <v>98.8056854</v>
       </c>
       <c r="C75" t="n">
-        <v>100.90515444</v>
+        <v>100.28568342</v>
       </c>
       <c r="D75" t="n">
-        <v>101.36759592</v>
+        <v>101.41281011</v>
       </c>
       <c r="E75" t="n">
-        <v>100.0433822</v>
+        <v>100.27895504</v>
       </c>
       <c r="F75" t="n">
-        <v>101.24199557</v>
+        <v>100.64090227</v>
       </c>
       <c r="G75" t="n">
-        <v>104.69885342</v>
+        <v>105.26889412</v>
       </c>
       <c r="H75" t="n">
-        <v>100.74863945</v>
+        <v>100.35320656</v>
       </c>
       <c r="I75" t="n">
-        <v>99.32531342</v>
+        <v>98.32525606999999</v>
       </c>
       <c r="J75" t="n">
-        <v>102.16628592</v>
+        <v>102.76296211</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>99.26892149</v>
+        <v>98.77999269</v>
       </c>
       <c r="C76" t="n">
-        <v>100.90760322</v>
+        <v>100.36211658</v>
       </c>
       <c r="D76" t="n">
-        <v>101.47530306</v>
+        <v>101.22516446</v>
       </c>
       <c r="E76" t="n">
-        <v>99.97971421</v>
+        <v>100.18625952</v>
       </c>
       <c r="F76" t="n">
-        <v>101.29620609</v>
+        <v>100.66745327</v>
       </c>
       <c r="G76" t="n">
-        <v>104.703491</v>
+        <v>105.03901703</v>
       </c>
       <c r="H76" t="n">
-        <v>100.8265291</v>
+        <v>100.36480245</v>
       </c>
       <c r="I76" t="n">
-        <v>99.37738373000001</v>
+        <v>98.64676589</v>
       </c>
       <c r="J76" t="n">
-        <v>102.4691298</v>
+        <v>102.21386576</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>99.03797588</v>
+        <v>98.81263075</v>
       </c>
       <c r="C77" t="n">
-        <v>100.22446859</v>
+        <v>100.45807062</v>
       </c>
       <c r="D77" t="n">
-        <v>101.96105134</v>
+        <v>101.23096464</v>
       </c>
       <c r="E77" t="n">
-        <v>101.01462</v>
+        <v>100.19379686</v>
       </c>
       <c r="F77" t="n">
-        <v>100.57678635</v>
+        <v>100.67479708</v>
       </c>
       <c r="G77" t="n">
-        <v>105.23364393</v>
+        <v>104.83361865</v>
       </c>
       <c r="H77" t="n">
-        <v>100.38257559</v>
+        <v>100.42686572</v>
       </c>
       <c r="I77" t="n">
-        <v>98.13503337</v>
+        <v>98.88187673</v>
       </c>
       <c r="J77" t="n">
-        <v>104.13725589</v>
+        <v>102.18720257</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>98.8056854</v>
+        <v>98.89492491</v>
       </c>
       <c r="C78" t="n">
-        <v>100.28568342</v>
+        <v>100.59400732</v>
       </c>
       <c r="D78" t="n">
-        <v>101.41281011</v>
+        <v>101.27370762</v>
       </c>
       <c r="E78" t="n">
-        <v>100.27895504</v>
+        <v>100.20860421</v>
       </c>
       <c r="F78" t="n">
-        <v>100.64090227</v>
+        <v>100.71030464</v>
       </c>
       <c r="G78" t="n">
-        <v>105.26889412</v>
+        <v>104.78116111</v>
       </c>
       <c r="H78" t="n">
-        <v>100.35320656</v>
+        <v>100.48840964</v>
       </c>
       <c r="I78" t="n">
-        <v>98.32525606999999</v>
+        <v>99.0228243</v>
       </c>
       <c r="J78" t="n">
-        <v>102.76296211</v>
+        <v>102.20693212</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>98.77999269</v>
+        <v>99.04119765999999</v>
       </c>
       <c r="C79" t="n">
-        <v>100.36211658</v>
+        <v>100.70455631</v>
       </c>
       <c r="D79" t="n">
-        <v>101.22516446</v>
+        <v>101.32776245</v>
       </c>
       <c r="E79" t="n">
-        <v>100.18625952</v>
+        <v>100.23459957</v>
       </c>
       <c r="F79" t="n">
-        <v>100.66745327</v>
+        <v>100.81743521</v>
       </c>
       <c r="G79" t="n">
-        <v>105.03901703</v>
+        <v>104.69386612</v>
       </c>
       <c r="H79" t="n">
-        <v>100.36480245</v>
+        <v>100.53239523</v>
       </c>
       <c r="I79" t="n">
-        <v>98.64676589</v>
+        <v>99.09196618</v>
       </c>
       <c r="J79" t="n">
-        <v>102.21386576</v>
+        <v>102.26529286</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>98.81263075</v>
+        <v>99.13330946000001</v>
       </c>
       <c r="C80" t="n">
-        <v>100.45807062</v>
+        <v>100.7780612</v>
       </c>
       <c r="D80" t="n">
-        <v>101.23096464</v>
+        <v>101.27917498</v>
       </c>
       <c r="E80" t="n">
-        <v>100.19379686</v>
+        <v>100.24430634</v>
       </c>
       <c r="F80" t="n">
-        <v>100.67479708</v>
+        <v>100.92622283</v>
       </c>
       <c r="G80" t="n">
-        <v>104.83361865</v>
+        <v>104.64544722</v>
       </c>
       <c r="H80" t="n">
-        <v>100.42686572</v>
+        <v>100.55872882</v>
       </c>
       <c r="I80" t="n">
-        <v>98.88187673</v>
+        <v>99.13304108</v>
       </c>
       <c r="J80" t="n">
-        <v>102.18720257</v>
+        <v>102.05006876</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>98.89492491</v>
+        <v>99.16973295</v>
       </c>
       <c r="C81" t="n">
-        <v>100.59400732</v>
+        <v>100.84925284</v>
       </c>
       <c r="D81" t="n">
-        <v>101.27370762</v>
+        <v>101.27711951</v>
       </c>
       <c r="E81" t="n">
-        <v>100.20860421</v>
+        <v>100.23509462</v>
       </c>
       <c r="F81" t="n">
-        <v>100.71030464</v>
+        <v>101.02401738</v>
       </c>
       <c r="G81" t="n">
-        <v>104.78116111</v>
+        <v>104.65731758</v>
       </c>
       <c r="H81" t="n">
-        <v>100.48840964</v>
+        <v>100.59866299</v>
       </c>
       <c r="I81" t="n">
-        <v>99.0228243</v>
+        <v>99.17382395</v>
       </c>
       <c r="J81" t="n">
-        <v>102.20693212</v>
+        <v>101.97596018</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>99.04119765999999</v>
+        <v>99.20267445</v>
       </c>
       <c r="C82" t="n">
-        <v>100.70455631</v>
+        <v>100.8788696</v>
       </c>
       <c r="D82" t="n">
-        <v>101.32776245</v>
+        <v>101.3107317</v>
       </c>
       <c r="E82" t="n">
-        <v>100.23459957</v>
+        <v>100.16233293</v>
       </c>
       <c r="F82" t="n">
-        <v>100.81743521</v>
+        <v>101.11154399</v>
       </c>
       <c r="G82" t="n">
-        <v>104.69386612</v>
+        <v>104.72410748</v>
       </c>
       <c r="H82" t="n">
-        <v>100.53239523</v>
+        <v>100.646836</v>
       </c>
       <c r="I82" t="n">
-        <v>99.09196618</v>
+        <v>99.20367881</v>
       </c>
       <c r="J82" t="n">
-        <v>102.26529286</v>
+        <v>102.03165417</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>99.13330946000001</v>
+        <v>99.22601874999999</v>
       </c>
       <c r="C83" t="n">
-        <v>100.7780612</v>
+        <v>100.88970362</v>
       </c>
       <c r="D83" t="n">
-        <v>101.27917498</v>
+        <v>101.32439129</v>
       </c>
       <c r="E83" t="n">
-        <v>100.24430634</v>
+        <v>100.10669456</v>
       </c>
       <c r="F83" t="n">
-        <v>100.92622283</v>
+        <v>101.18144055</v>
       </c>
       <c r="G83" t="n">
-        <v>104.64544722</v>
+        <v>104.73218673</v>
       </c>
       <c r="H83" t="n">
-        <v>100.55872882</v>
+        <v>100.69205148</v>
       </c>
       <c r="I83" t="n">
-        <v>99.13304108</v>
+        <v>99.25325148</v>
       </c>
       <c r="J83" t="n">
-        <v>102.05006876</v>
+        <v>102.04967358</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>99.16973295</v>
+        <v>99.24874652</v>
       </c>
       <c r="C84" t="n">
-        <v>100.84925284</v>
+        <v>100.90515444</v>
       </c>
       <c r="D84" t="n">
-        <v>101.27711951</v>
+        <v>101.36759592</v>
       </c>
       <c r="E84" t="n">
-        <v>100.23509462</v>
+        <v>100.0433822</v>
       </c>
       <c r="F84" t="n">
-        <v>101.02401738</v>
+        <v>101.24199557</v>
       </c>
       <c r="G84" t="n">
-        <v>104.65731758</v>
+        <v>104.69885342</v>
       </c>
       <c r="H84" t="n">
-        <v>100.59866299</v>
+        <v>100.74863945</v>
       </c>
       <c r="I84" t="n">
-        <v>99.17382395</v>
+        <v>99.32531342</v>
       </c>
       <c r="J84" t="n">
-        <v>101.97596018</v>
+        <v>102.16628592</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>99.20267445</v>
+        <v>99.26892149</v>
       </c>
       <c r="C85" t="n">
-        <v>100.8788696</v>
+        <v>100.90760322</v>
       </c>
       <c r="D85" t="n">
-        <v>101.3107317</v>
+        <v>101.47530306</v>
       </c>
       <c r="E85" t="n">
-        <v>100.16233293</v>
+        <v>99.97971421</v>
       </c>
       <c r="F85" t="n">
-        <v>101.11154399</v>
+        <v>101.29620609</v>
       </c>
       <c r="G85" t="n">
-        <v>104.72410748</v>
+        <v>104.703491</v>
       </c>
       <c r="H85" t="n">
-        <v>100.646836</v>
+        <v>100.8265291</v>
       </c>
       <c r="I85" t="n">
-        <v>99.20367881</v>
+        <v>99.37738373000001</v>
       </c>
       <c r="J85" t="n">
-        <v>102.03165417</v>
+        <v>102.4691298</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>98.5</v>
+        <v>98.95078166</v>
       </c>
       <c r="C86" t="n">
-        <v>101.5</v>
+        <v>100.97227268</v>
       </c>
       <c r="D86" t="n">
-        <v>104.1</v>
+        <v>101.954647</v>
       </c>
       <c r="E86" t="n">
-        <v>99.3</v>
+        <v>98.28878432</v>
       </c>
       <c r="F86" t="n">
-        <v>101.8</v>
+        <v>101.94636562</v>
       </c>
       <c r="G86" t="n">
-        <v>104.3</v>
+        <v>103.85317022</v>
       </c>
       <c r="H86" t="n">
-        <v>101.8</v>
+        <v>101.74448787</v>
       </c>
       <c r="I86" t="n">
-        <v>99.40000000000001</v>
+        <v>100.39660553</v>
       </c>
       <c r="J86" t="n">
-        <v>110.7</v>
+        <v>104.47440717</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>98.40197104000001</v>
+        <v>99.02246989</v>
       </c>
       <c r="C87" t="n">
-        <v>101.64796281</v>
+        <v>101.01691797</v>
       </c>
       <c r="D87" t="n">
-        <v>104.32549094</v>
+        <v>102.21945552</v>
       </c>
       <c r="E87" t="n">
-        <v>99.27804633</v>
+        <v>99.07658488</v>
       </c>
       <c r="F87" t="n">
-        <v>101.84903828</v>
+        <v>102.03222725</v>
       </c>
       <c r="G87" t="n">
-        <v>104.40593922</v>
+        <v>103.74741673</v>
       </c>
       <c r="H87" t="n">
-        <v>101.7964048</v>
+        <v>101.84267915</v>
       </c>
       <c r="I87" t="n">
-        <v>99.24884831</v>
+        <v>100.17477632</v>
       </c>
       <c r="J87" t="n">
-        <v>111.30972709</v>
+        <v>104.98005584</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>98.37287979</v>
+        <v>99.08704371</v>
       </c>
       <c r="C88" t="n">
-        <v>101.74680006</v>
+        <v>101.0263144</v>
       </c>
       <c r="D88" t="n">
-        <v>104.48456197</v>
+        <v>102.51051805</v>
       </c>
       <c r="E88" t="n">
-        <v>99.28726742000001</v>
+        <v>99.1884225</v>
       </c>
       <c r="F88" t="n">
-        <v>101.85597077</v>
+        <v>102.04403476</v>
       </c>
       <c r="G88" t="n">
-        <v>104.51457158</v>
+        <v>103.86231848</v>
       </c>
       <c r="H88" t="n">
-        <v>101.79676907</v>
+        <v>101.84901001</v>
       </c>
       <c r="I88" t="n">
-        <v>99.13080337</v>
+        <v>99.96970394</v>
       </c>
       <c r="J88" t="n">
-        <v>111.73924152</v>
+        <v>105.7876706</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>98.95078166</v>
+        <v>99.06116188</v>
       </c>
       <c r="C89" t="n">
-        <v>100.97227268</v>
+        <v>101.06267609</v>
       </c>
       <c r="D89" t="n">
-        <v>101.954647</v>
+        <v>102.5969083</v>
       </c>
       <c r="E89" t="n">
-        <v>98.28878432</v>
+        <v>99.18567315</v>
       </c>
       <c r="F89" t="n">
-        <v>101.94636562</v>
+        <v>102.07291569</v>
       </c>
       <c r="G89" t="n">
-        <v>103.85317022</v>
+        <v>103.98532697</v>
       </c>
       <c r="H89" t="n">
-        <v>101.74448787</v>
+        <v>101.82408557</v>
       </c>
       <c r="I89" t="n">
-        <v>100.39660553</v>
+        <v>99.86504762</v>
       </c>
       <c r="J89" t="n">
-        <v>104.47440717</v>
+        <v>106.02782357</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>99.02246989</v>
+        <v>98.98958023</v>
       </c>
       <c r="C90" t="n">
-        <v>101.01691797</v>
+        <v>101.10350018</v>
       </c>
       <c r="D90" t="n">
-        <v>102.21945552</v>
+        <v>102.70135321</v>
       </c>
       <c r="E90" t="n">
-        <v>99.07658488</v>
+        <v>99.18725968</v>
       </c>
       <c r="F90" t="n">
-        <v>102.03222725</v>
+        <v>102.08394645</v>
       </c>
       <c r="G90" t="n">
-        <v>103.74741673</v>
+        <v>103.9957722</v>
       </c>
       <c r="H90" t="n">
-        <v>101.84267915</v>
+        <v>101.80465584</v>
       </c>
       <c r="I90" t="n">
-        <v>100.17477632</v>
+        <v>99.81895625999999</v>
       </c>
       <c r="J90" t="n">
-        <v>104.98005584</v>
+        <v>106.36270248</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>99.08704371</v>
+        <v>98.85200444</v>
       </c>
       <c r="C91" t="n">
-        <v>101.0263144</v>
+        <v>101.17711129</v>
       </c>
       <c r="D91" t="n">
-        <v>102.51051805</v>
+        <v>102.9266646</v>
       </c>
       <c r="E91" t="n">
-        <v>99.1884225</v>
+        <v>99.19437306</v>
       </c>
       <c r="F91" t="n">
-        <v>102.04403476</v>
+        <v>102.01003156</v>
       </c>
       <c r="G91" t="n">
-        <v>103.86231848</v>
+        <v>104.08969618</v>
       </c>
       <c r="H91" t="n">
-        <v>101.84901001</v>
+        <v>101.79907083</v>
       </c>
       <c r="I91" t="n">
-        <v>99.96970394</v>
+        <v>99.76621544</v>
       </c>
       <c r="J91" t="n">
-        <v>105.7876706</v>
+        <v>107.05322568</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>99.06116188</v>
+        <v>98.73054299</v>
       </c>
       <c r="C92" t="n">
-        <v>101.06267609</v>
+        <v>101.26184885</v>
       </c>
       <c r="D92" t="n">
-        <v>102.5969083</v>
+        <v>103.2601539</v>
       </c>
       <c r="E92" t="n">
-        <v>99.18567315</v>
+        <v>99.19901881</v>
       </c>
       <c r="F92" t="n">
-        <v>102.07291569</v>
+        <v>101.92364199</v>
       </c>
       <c r="G92" t="n">
-        <v>103.98532697</v>
+        <v>104.161455</v>
       </c>
       <c r="H92" t="n">
-        <v>101.82408557</v>
+        <v>101.80207168</v>
       </c>
       <c r="I92" t="n">
-        <v>99.86504762</v>
+        <v>99.67306507000001</v>
       </c>
       <c r="J92" t="n">
-        <v>106.02782357</v>
+        <v>108.0904239</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>98.98958023</v>
+        <v>98.64400805</v>
       </c>
       <c r="C93" t="n">
-        <v>101.10350018</v>
+        <v>101.34399232</v>
       </c>
       <c r="D93" t="n">
-        <v>102.70135321</v>
+        <v>103.62213251</v>
       </c>
       <c r="E93" t="n">
-        <v>99.18725968</v>
+        <v>99.21090644</v>
       </c>
       <c r="F93" t="n">
-        <v>102.08394645</v>
+        <v>101.87882266</v>
       </c>
       <c r="G93" t="n">
-        <v>103.9957722</v>
+        <v>104.19097853</v>
       </c>
       <c r="H93" t="n">
-        <v>101.80465584</v>
+        <v>101.7996535</v>
       </c>
       <c r="I93" t="n">
-        <v>99.81895625999999</v>
+        <v>99.57039932000001</v>
       </c>
       <c r="J93" t="n">
-        <v>106.36270248</v>
+        <v>109.2116642</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>98.85200444</v>
+        <v>98.55907607</v>
       </c>
       <c r="C94" t="n">
-        <v>101.17711129</v>
+        <v>101.43712196</v>
       </c>
       <c r="D94" t="n">
-        <v>102.9266646</v>
+        <v>103.86787514</v>
       </c>
       <c r="E94" t="n">
-        <v>99.19437306</v>
+        <v>99.24480423999999</v>
       </c>
       <c r="F94" t="n">
-        <v>102.01003156</v>
+        <v>101.86087284</v>
       </c>
       <c r="G94" t="n">
-        <v>104.08969618</v>
+        <v>104.19504058</v>
       </c>
       <c r="H94" t="n">
-        <v>101.79907083</v>
+        <v>101.79244767</v>
       </c>
       <c r="I94" t="n">
-        <v>99.76621544</v>
+        <v>99.47596179</v>
       </c>
       <c r="J94" t="n">
-        <v>107.05322568</v>
+        <v>109.96816521</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>98.73054299</v>
+        <v>98.5</v>
       </c>
       <c r="C95" t="n">
-        <v>101.26184885</v>
+        <v>101.5</v>
       </c>
       <c r="D95" t="n">
-        <v>103.2601539</v>
+        <v>104.1</v>
       </c>
       <c r="E95" t="n">
-        <v>99.19901881</v>
+        <v>99.3</v>
       </c>
       <c r="F95" t="n">
-        <v>101.92364199</v>
+        <v>101.8</v>
       </c>
       <c r="G95" t="n">
-        <v>104.161455</v>
+        <v>104.3</v>
       </c>
       <c r="H95" t="n">
-        <v>101.80207168</v>
+        <v>101.8</v>
       </c>
       <c r="I95" t="n">
-        <v>99.67306507000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="J95" t="n">
-        <v>108.0904239</v>
+        <v>110.7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>98.64400805</v>
+        <v>98.40197104000001</v>
       </c>
       <c r="C96" t="n">
-        <v>101.34399232</v>
+        <v>101.64796281</v>
       </c>
       <c r="D96" t="n">
-        <v>103.62213251</v>
+        <v>104.32549094</v>
       </c>
       <c r="E96" t="n">
-        <v>99.21090644</v>
+        <v>99.27804633</v>
       </c>
       <c r="F96" t="n">
-        <v>101.87882266</v>
+        <v>101.84903828</v>
       </c>
       <c r="G96" t="n">
-        <v>104.19097853</v>
+        <v>104.40593922</v>
       </c>
       <c r="H96" t="n">
-        <v>101.7996535</v>
+        <v>101.7964048</v>
       </c>
       <c r="I96" t="n">
-        <v>99.57039932000001</v>
+        <v>99.24884831</v>
       </c>
       <c r="J96" t="n">
-        <v>109.2116642</v>
+        <v>111.30972709</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>98.55907607</v>
+        <v>98.37287979</v>
       </c>
       <c r="C97" t="n">
-        <v>101.43712196</v>
+        <v>101.74680006</v>
       </c>
       <c r="D97" t="n">
-        <v>103.86787514</v>
+        <v>104.48456197</v>
       </c>
       <c r="E97" t="n">
-        <v>99.24480423999999</v>
+        <v>99.28726742000001</v>
       </c>
       <c r="F97" t="n">
-        <v>101.86087284</v>
+        <v>101.85597077</v>
       </c>
       <c r="G97" t="n">
-        <v>104.19504058</v>
+        <v>104.51457158</v>
       </c>
       <c r="H97" t="n">
-        <v>101.79244767</v>
+        <v>101.79676907</v>
       </c>
       <c r="I97" t="n">
-        <v>99.47596179</v>
+        <v>99.13080337</v>
       </c>
       <c r="J97" t="n">
-        <v>109.96816521</v>
+        <v>111.73924152</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>98.41336613</v>
+        <v>98.24246088</v>
       </c>
       <c r="C98" t="n">
-        <v>102.9766041</v>
+        <v>102.84871456</v>
       </c>
       <c r="D98" t="n">
-        <v>106.41175398</v>
+        <v>106.77730176</v>
       </c>
       <c r="E98" t="n">
-        <v>99.08129441</v>
+        <v>99.6665522</v>
       </c>
       <c r="F98" t="n">
-        <v>102.9748236</v>
+        <v>102.20051058</v>
       </c>
       <c r="G98" t="n">
-        <v>105.64231688</v>
+        <v>105.90575995</v>
       </c>
       <c r="H98" t="n">
-        <v>103.08474931</v>
+        <v>102.22753029</v>
       </c>
       <c r="I98" t="n">
-        <v>98.26841752</v>
+        <v>97.53535866</v>
       </c>
       <c r="J98" t="n">
-        <v>116.35726711</v>
+        <v>117.78626616</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>98.44646245</v>
+        <v>98.11778123000001</v>
       </c>
       <c r="C99" t="n">
-        <v>102.87136491</v>
+        <v>102.98883505</v>
       </c>
       <c r="D99" t="n">
-        <v>106.02138679</v>
+        <v>107.64175574</v>
       </c>
       <c r="E99" t="n">
-        <v>99.09983990000001</v>
+        <v>99.35890867000001</v>
       </c>
       <c r="F99" t="n">
-        <v>103.00926341</v>
+        <v>102.22507202</v>
       </c>
       <c r="G99" t="n">
-        <v>105.04209879</v>
+        <v>106.11367374</v>
       </c>
       <c r="H99" t="n">
-        <v>103.12455952</v>
+        <v>102.3</v>
       </c>
       <c r="I99" t="n">
-        <v>98.24448950999999</v>
+        <v>97.78525324</v>
       </c>
       <c r="J99" t="n">
-        <v>115.4173336</v>
+        <v>120.42991881</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>98.41366628</v>
+        <v>97.99590585999999</v>
       </c>
       <c r="C100" t="n">
-        <v>102.76049999</v>
+        <v>103.16846363</v>
       </c>
       <c r="D100" t="n">
-        <v>105.58310421</v>
+        <v>107.75167931</v>
       </c>
       <c r="E100" t="n">
-        <v>99.08013585</v>
+        <v>99.31547927</v>
       </c>
       <c r="F100" t="n">
-        <v>103.0196596</v>
+        <v>102.35453355</v>
       </c>
       <c r="G100" t="n">
-        <v>104.30725727</v>
+        <v>106.20670308</v>
       </c>
       <c r="H100" t="n">
-        <v>103.13029689</v>
+        <v>102.46177461</v>
       </c>
       <c r="I100" t="n">
-        <v>98.17522475</v>
+        <v>98.04412526</v>
       </c>
       <c r="J100" t="n">
-        <v>114.4585138</v>
+        <v>120.6023424</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>98.24246088</v>
+        <v>97.91701127</v>
       </c>
       <c r="C101" t="n">
-        <v>102.84871456</v>
+        <v>103.23683002</v>
       </c>
       <c r="D101" t="n">
-        <v>106.77730176</v>
+        <v>107.84118054</v>
       </c>
       <c r="E101" t="n">
-        <v>99.6665522</v>
+        <v>99.3009459</v>
       </c>
       <c r="F101" t="n">
-        <v>102.20051058</v>
+        <v>102.45418511</v>
       </c>
       <c r="G101" t="n">
-        <v>105.90575995</v>
+        <v>106.18421967</v>
       </c>
       <c r="H101" t="n">
-        <v>102.22753029</v>
+        <v>102.5445932</v>
       </c>
       <c r="I101" t="n">
-        <v>97.53535866</v>
+        <v>98.11932743</v>
       </c>
       <c r="J101" t="n">
-        <v>117.78626616</v>
+        <v>120.85505526</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>98.11778123000001</v>
+        <v>97.86885722</v>
       </c>
       <c r="C102" t="n">
-        <v>102.98883505</v>
+        <v>103.21292711</v>
       </c>
       <c r="D102" t="n">
-        <v>107.64175574</v>
+        <v>107.7393009</v>
       </c>
       <c r="E102" t="n">
-        <v>99.35890867000001</v>
+        <v>99.14380789000001</v>
       </c>
       <c r="F102" t="n">
-        <v>102.22507202</v>
+        <v>102.54273431</v>
       </c>
       <c r="G102" t="n">
-        <v>106.11367374</v>
+        <v>106.18935679</v>
       </c>
       <c r="H102" t="n">
-        <v>102.3</v>
+        <v>102.64241391</v>
       </c>
       <c r="I102" t="n">
-        <v>97.78525324</v>
+        <v>98.12577686</v>
       </c>
       <c r="J102" t="n">
-        <v>120.42991881</v>
+        <v>120.59519806</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>97.99590585999999</v>
+        <v>97.91413126</v>
       </c>
       <c r="C103" t="n">
-        <v>103.16846363</v>
+        <v>103.17721626</v>
       </c>
       <c r="D103" t="n">
-        <v>107.75167931</v>
+        <v>107.57608443</v>
       </c>
       <c r="E103" t="n">
-        <v>99.31547927</v>
+        <v>99.09372482000001</v>
       </c>
       <c r="F103" t="n">
-        <v>102.35453355</v>
+        <v>102.63916482</v>
       </c>
       <c r="G103" t="n">
-        <v>106.20670308</v>
+        <v>106.22058242</v>
       </c>
       <c r="H103" t="n">
-        <v>102.46177461</v>
+        <v>102.75046819</v>
       </c>
       <c r="I103" t="n">
-        <v>98.04412526</v>
+        <v>98.13136029</v>
       </c>
       <c r="J103" t="n">
-        <v>120.6023424</v>
+        <v>120.0401844</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>97.91701127</v>
+        <v>98.06659274</v>
       </c>
       <c r="C104" t="n">
-        <v>103.23683002</v>
+        <v>103.15429207</v>
       </c>
       <c r="D104" t="n">
-        <v>107.84118054</v>
+        <v>107.35824685</v>
       </c>
       <c r="E104" t="n">
-        <v>99.3009459</v>
+        <v>99.05925338999999</v>
       </c>
       <c r="F104" t="n">
-        <v>102.45418511</v>
+        <v>102.74938746</v>
       </c>
       <c r="G104" t="n">
-        <v>106.18421967</v>
+        <v>106.21691933</v>
       </c>
       <c r="H104" t="n">
-        <v>102.5445932</v>
+        <v>102.8353442</v>
       </c>
       <c r="I104" t="n">
-        <v>98.11932743</v>
+        <v>98.15545783</v>
       </c>
       <c r="J104" t="n">
-        <v>120.85505526</v>
+        <v>119.27088213</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>97.86885722</v>
+        <v>98.19122795</v>
       </c>
       <c r="C105" t="n">
-        <v>103.21292711</v>
+        <v>103.10927605</v>
       </c>
       <c r="D105" t="n">
-        <v>107.7393009</v>
+        <v>107.01791688</v>
       </c>
       <c r="E105" t="n">
-        <v>99.14380789000001</v>
+        <v>99.06553135999999</v>
       </c>
       <c r="F105" t="n">
-        <v>102.54273431</v>
+        <v>102.83748972</v>
       </c>
       <c r="G105" t="n">
-        <v>106.18935679</v>
+        <v>106.12416174</v>
       </c>
       <c r="H105" t="n">
-        <v>102.64241391</v>
+        <v>102.92228653</v>
       </c>
       <c r="I105" t="n">
-        <v>98.12577686</v>
+        <v>98.21940334999999</v>
       </c>
       <c r="J105" t="n">
-        <v>120.59519806</v>
+        <v>118.14970976</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>97.91413126</v>
+        <v>98.29819625</v>
       </c>
       <c r="C106" t="n">
-        <v>103.17721626</v>
+        <v>103.0486513</v>
       </c>
       <c r="D106" t="n">
-        <v>107.57608443</v>
+        <v>106.71872731</v>
       </c>
       <c r="E106" t="n">
-        <v>99.09372482000001</v>
+        <v>99.07499237</v>
       </c>
       <c r="F106" t="n">
-        <v>102.63916482</v>
+        <v>102.9004692</v>
       </c>
       <c r="G106" t="n">
-        <v>106.22058242</v>
+        <v>105.96590527</v>
       </c>
       <c r="H106" t="n">
-        <v>102.75046819</v>
+        <v>103.01491306</v>
       </c>
       <c r="I106" t="n">
-        <v>98.13136029</v>
+        <v>98.25837251999999</v>
       </c>
       <c r="J106" t="n">
-        <v>120.0401844</v>
+        <v>117.21883297</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>98.06659274</v>
+        <v>98.41336613</v>
       </c>
       <c r="C107" t="n">
-        <v>103.15429207</v>
+        <v>102.9766041</v>
       </c>
       <c r="D107" t="n">
-        <v>107.35824685</v>
+        <v>106.41175398</v>
       </c>
       <c r="E107" t="n">
-        <v>99.05925338999999</v>
+        <v>99.08129441</v>
       </c>
       <c r="F107" t="n">
-        <v>102.74938746</v>
+        <v>102.9748236</v>
       </c>
       <c r="G107" t="n">
-        <v>106.21691933</v>
+        <v>105.64231688</v>
       </c>
       <c r="H107" t="n">
-        <v>102.8353442</v>
+        <v>103.08474931</v>
       </c>
       <c r="I107" t="n">
-        <v>98.15545783</v>
+        <v>98.26841752</v>
       </c>
       <c r="J107" t="n">
-        <v>119.27088213</v>
+        <v>116.35726711</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>98.19122795</v>
+        <v>98.44646245</v>
       </c>
       <c r="C108" t="n">
-        <v>103.10927605</v>
+        <v>102.87136491</v>
       </c>
       <c r="D108" t="n">
-        <v>107.01791688</v>
+        <v>106.02138679</v>
       </c>
       <c r="E108" t="n">
-        <v>99.06553135999999</v>
+        <v>99.09983990000001</v>
       </c>
       <c r="F108" t="n">
-        <v>102.83748972</v>
+        <v>103.00926341</v>
       </c>
       <c r="G108" t="n">
-        <v>106.12416174</v>
+        <v>105.04209879</v>
       </c>
       <c r="H108" t="n">
-        <v>102.92228653</v>
+        <v>103.12455952</v>
       </c>
       <c r="I108" t="n">
-        <v>98.21940334999999</v>
+        <v>98.24448950999999</v>
       </c>
       <c r="J108" t="n">
-        <v>118.14970976</v>
+        <v>115.4173336</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>98.29819625</v>
+        <v>98.41366628</v>
       </c>
       <c r="C109" t="n">
-        <v>103.0486513</v>
+        <v>102.76049999</v>
       </c>
       <c r="D109" t="n">
-        <v>106.71872731</v>
+        <v>105.58310421</v>
       </c>
       <c r="E109" t="n">
-        <v>99.07499237</v>
+        <v>99.08013585</v>
       </c>
       <c r="F109" t="n">
-        <v>102.9004692</v>
+        <v>103.0196596</v>
       </c>
       <c r="G109" t="n">
-        <v>105.96590527</v>
+        <v>104.30725727</v>
       </c>
       <c r="H109" t="n">
-        <v>103.01491306</v>
+        <v>103.13029689</v>
       </c>
       <c r="I109" t="n">
-        <v>98.25837251999999</v>
+        <v>98.17522475</v>
       </c>
       <c r="J109" t="n">
-        <v>117.21883297</v>
+        <v>114.4585138</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>97.15774259</v>
+        <v>96.99741259</v>
       </c>
       <c r="C110" t="n">
-        <v>100.92231713</v>
+        <v>101.48327963</v>
       </c>
       <c r="D110" t="n">
-        <v>98.76442915</v>
+        <v>100.72175701</v>
       </c>
       <c r="E110" t="n">
-        <v>98.68907099</v>
+        <v>100.07626546</v>
       </c>
       <c r="F110" t="n">
-        <v>100.55445026</v>
+        <v>102.90120918</v>
       </c>
       <c r="G110" t="n">
-        <v>94.49425519</v>
+        <v>95.67015094</v>
       </c>
       <c r="H110" t="n">
-        <v>101.72384873</v>
+        <v>102.58295905</v>
       </c>
       <c r="I110" t="n">
-        <v>97.58098132000001</v>
+        <v>96.96976165</v>
       </c>
       <c r="J110" t="n">
-        <v>100.42850644</v>
+        <v>104.73873607</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>97.20710671000001</v>
+        <v>96.89167128</v>
       </c>
       <c r="C111" t="n">
-        <v>100.97796687</v>
+        <v>101.35118374</v>
       </c>
       <c r="D111" t="n">
-        <v>98.91162348</v>
+        <v>99.41480731999999</v>
       </c>
       <c r="E111" t="n">
-        <v>98.71060048</v>
+        <v>99.07456199000001</v>
       </c>
       <c r="F111" t="n">
-        <v>100.39781767</v>
+        <v>102.58943158</v>
       </c>
       <c r="G111" t="n">
-        <v>94.86240862</v>
+        <v>95.45185531</v>
       </c>
       <c r="H111" t="n">
-        <v>101.69722209</v>
+        <v>102.38670198</v>
       </c>
       <c r="I111" t="n">
-        <v>97.69220178</v>
+        <v>97.32185869</v>
       </c>
       <c r="J111" t="n">
-        <v>100.65263444</v>
+        <v>101.45569568</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>97.30634818999999</v>
+        <v>97.00364398000001</v>
       </c>
       <c r="C112" t="n">
-        <v>101.06839236</v>
+        <v>101.19435728</v>
       </c>
       <c r="D112" t="n">
-        <v>99.14642790000001</v>
+        <v>99.14788301</v>
       </c>
       <c r="E112" t="n">
-        <v>98.75948617</v>
+        <v>98.92825571</v>
       </c>
       <c r="F112" t="n">
-        <v>100.26673387</v>
+        <v>102.29744858</v>
       </c>
       <c r="G112" t="n">
-        <v>95.40399748999999</v>
+        <v>95.22958855</v>
       </c>
       <c r="H112" t="n">
-        <v>101.67824705</v>
+        <v>102.26083149</v>
       </c>
       <c r="I112" t="n">
-        <v>97.82365503</v>
+        <v>97.35229834</v>
       </c>
       <c r="J112" t="n">
-        <v>101.02458916</v>
+        <v>100.89638867</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>96.99741259</v>
+        <v>97.12606065</v>
       </c>
       <c r="C113" t="n">
-        <v>101.48327963</v>
+        <v>101.10539252</v>
       </c>
       <c r="D113" t="n">
-        <v>100.72175701</v>
+        <v>98.92875612</v>
       </c>
       <c r="E113" t="n">
-        <v>100.07626546</v>
+        <v>98.77138546</v>
       </c>
       <c r="F113" t="n">
-        <v>102.90120918</v>
+        <v>101.99730429</v>
       </c>
       <c r="G113" t="n">
-        <v>95.67015094</v>
+        <v>95.03829356999999</v>
       </c>
       <c r="H113" t="n">
-        <v>102.58295905</v>
+        <v>102.1502924</v>
       </c>
       <c r="I113" t="n">
-        <v>96.96976165</v>
+        <v>97.38051403</v>
       </c>
       <c r="J113" t="n">
-        <v>104.73873607</v>
+        <v>100.43160634</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>96.89167128</v>
+        <v>97.1868212</v>
       </c>
       <c r="C114" t="n">
-        <v>101.35118374</v>
+        <v>101.04064067</v>
       </c>
       <c r="D114" t="n">
-        <v>99.41480731999999</v>
+        <v>98.83780376999999</v>
       </c>
       <c r="E114" t="n">
-        <v>99.07456199000001</v>
+        <v>98.73334867</v>
       </c>
       <c r="F114" t="n">
-        <v>102.58943158</v>
+        <v>101.72777889</v>
       </c>
       <c r="G114" t="n">
-        <v>95.45185531</v>
+        <v>94.80615988</v>
       </c>
       <c r="H114" t="n">
-        <v>102.38670198</v>
+        <v>102.03440702</v>
       </c>
       <c r="I114" t="n">
-        <v>97.32185869</v>
+        <v>97.40283023000001</v>
       </c>
       <c r="J114" t="n">
-        <v>101.45569568</v>
+        <v>100.31509822</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>97.00364398000001</v>
+        <v>97.21681518</v>
       </c>
       <c r="C115" t="n">
-        <v>101.19435728</v>
+        <v>100.99507981</v>
       </c>
       <c r="D115" t="n">
-        <v>99.14788301</v>
+        <v>98.73502022</v>
       </c>
       <c r="E115" t="n">
-        <v>98.92825571</v>
+        <v>98.72501207000001</v>
       </c>
       <c r="F115" t="n">
-        <v>102.29744858</v>
+        <v>101.47370471</v>
       </c>
       <c r="G115" t="n">
-        <v>95.22958855</v>
+        <v>94.55690358</v>
       </c>
       <c r="H115" t="n">
-        <v>102.26083149</v>
+        <v>101.92719226</v>
       </c>
       <c r="I115" t="n">
-        <v>97.35229834</v>
+        <v>97.40317229</v>
       </c>
       <c r="J115" t="n">
-        <v>100.89638867</v>
+        <v>100.16402014</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>97.12606065</v>
+        <v>97.20302279000001</v>
       </c>
       <c r="C116" t="n">
-        <v>101.10539252</v>
+        <v>100.9286441</v>
       </c>
       <c r="D116" t="n">
-        <v>98.92875612</v>
+        <v>98.64454386</v>
       </c>
       <c r="E116" t="n">
-        <v>98.77138546</v>
+        <v>98.72979964</v>
       </c>
       <c r="F116" t="n">
-        <v>101.99730429</v>
+        <v>101.21167729</v>
       </c>
       <c r="G116" t="n">
-        <v>95.03829356999999</v>
+        <v>94.39792247</v>
       </c>
       <c r="H116" t="n">
-        <v>102.1502924</v>
+        <v>101.85704879</v>
       </c>
       <c r="I116" t="n">
-        <v>97.38051403</v>
+        <v>97.40014832</v>
       </c>
       <c r="J116" t="n">
-        <v>100.43160634</v>
+        <v>100.02862726</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>97.1868212</v>
+        <v>97.16769349</v>
       </c>
       <c r="C117" t="n">
-        <v>101.04064067</v>
+        <v>100.90328735</v>
       </c>
       <c r="D117" t="n">
-        <v>98.83780376999999</v>
+        <v>98.65366192</v>
       </c>
       <c r="E117" t="n">
-        <v>98.73334867</v>
+        <v>98.70177325</v>
       </c>
       <c r="F117" t="n">
-        <v>101.72777889</v>
+        <v>100.96991953</v>
       </c>
       <c r="G117" t="n">
-        <v>94.80615988</v>
+        <v>94.34959782</v>
       </c>
       <c r="H117" t="n">
-        <v>102.03440702</v>
+        <v>101.80482568</v>
       </c>
       <c r="I117" t="n">
-        <v>97.40283023000001</v>
+        <v>97.43064957</v>
       </c>
       <c r="J117" t="n">
-        <v>100.31509822</v>
+        <v>100.13818068</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>97.21681518</v>
+        <v>97.16345225000001</v>
       </c>
       <c r="C118" t="n">
-        <v>100.99507981</v>
+        <v>100.90641255</v>
       </c>
       <c r="D118" t="n">
-        <v>98.73502022</v>
+        <v>98.70471628</v>
       </c>
       <c r="E118" t="n">
-        <v>98.72501207000001</v>
+        <v>98.68429211</v>
       </c>
       <c r="F118" t="n">
-        <v>101.47370471</v>
+        <v>100.76279721</v>
       </c>
       <c r="G118" t="n">
-        <v>94.55690358</v>
+        <v>94.35667841999999</v>
       </c>
       <c r="H118" t="n">
-        <v>101.92719226</v>
+        <v>101.76250285</v>
       </c>
       <c r="I118" t="n">
-        <v>97.40317229</v>
+        <v>97.50508391</v>
       </c>
       <c r="J118" t="n">
-        <v>100.16402014</v>
+        <v>100.3074218</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>97.20302279000001</v>
+        <v>97.15774259</v>
       </c>
       <c r="C119" t="n">
-        <v>100.9286441</v>
+        <v>100.92231713</v>
       </c>
       <c r="D119" t="n">
-        <v>98.64454386</v>
+        <v>98.76442915</v>
       </c>
       <c r="E119" t="n">
-        <v>98.72979964</v>
+        <v>98.68907099</v>
       </c>
       <c r="F119" t="n">
-        <v>101.21167729</v>
+        <v>100.55445026</v>
       </c>
       <c r="G119" t="n">
-        <v>94.39792247</v>
+        <v>94.49425519</v>
       </c>
       <c r="H119" t="n">
-        <v>101.85704879</v>
+        <v>101.72384873</v>
       </c>
       <c r="I119" t="n">
-        <v>97.40014832</v>
+        <v>97.58098132000001</v>
       </c>
       <c r="J119" t="n">
-        <v>100.02862726</v>
+        <v>100.42850644</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>97.16769349</v>
+        <v>97.20710671000001</v>
       </c>
       <c r="C120" t="n">
-        <v>100.90328735</v>
+        <v>100.97796687</v>
       </c>
       <c r="D120" t="n">
-        <v>98.65366192</v>
+        <v>98.91162348</v>
       </c>
       <c r="E120" t="n">
-        <v>98.70177325</v>
+        <v>98.71060048</v>
       </c>
       <c r="F120" t="n">
-        <v>100.96991953</v>
+        <v>100.39781767</v>
       </c>
       <c r="G120" t="n">
-        <v>94.34959782</v>
+        <v>94.86240862</v>
       </c>
       <c r="H120" t="n">
-        <v>101.80482568</v>
+        <v>101.69722209</v>
       </c>
       <c r="I120" t="n">
-        <v>97.43064957</v>
+        <v>97.69220178</v>
       </c>
       <c r="J120" t="n">
-        <v>100.13818068</v>
+        <v>100.65263444</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>97.16345225000001</v>
+        <v>97.30634818999999</v>
       </c>
       <c r="C121" t="n">
-        <v>100.90641255</v>
+        <v>101.06839236</v>
       </c>
       <c r="D121" t="n">
-        <v>98.70471628</v>
+        <v>99.14642790000001</v>
       </c>
       <c r="E121" t="n">
-        <v>98.68429211</v>
+        <v>98.75948617</v>
       </c>
       <c r="F121" t="n">
-        <v>100.76279721</v>
+        <v>100.26673387</v>
       </c>
       <c r="G121" t="n">
-        <v>94.35667841999999</v>
+        <v>95.40399748999999</v>
       </c>
       <c r="H121" t="n">
-        <v>101.76250285</v>
+        <v>101.67824705</v>
       </c>
       <c r="I121" t="n">
-        <v>97.50508391</v>
+        <v>97.82365503</v>
       </c>
       <c r="J121" t="n">
-        <v>100.3074218</v>
+        <v>101.02458916</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>99.50175661999999</v>
+        <v>99.32487291</v>
       </c>
       <c r="C122" t="n">
-        <v>102.96978449</v>
+        <v>102.24508772</v>
       </c>
       <c r="D122" t="n">
-        <v>102.90916615</v>
+        <v>101.41493076</v>
       </c>
       <c r="E122" t="n">
-        <v>100.38097442</v>
+        <v>97.99798903999999</v>
       </c>
       <c r="F122" t="n">
-        <v>99.71222281</v>
+        <v>98.72706556999999</v>
       </c>
       <c r="G122" t="n">
-        <v>104.24608958</v>
+        <v>102.72971342</v>
       </c>
       <c r="H122" t="n">
-        <v>101.72937464</v>
+        <v>101.68306726</v>
       </c>
       <c r="I122" t="n">
-        <v>98.81225499</v>
+        <v>99.77533895000001</v>
       </c>
       <c r="J122" t="n">
-        <v>106.45120973</v>
+        <v>103.67021581</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>99.46238694</v>
+        <v>99.63491491000001</v>
       </c>
       <c r="C123" t="n">
-        <v>103.07360158</v>
+        <v>102.28621167</v>
       </c>
       <c r="D123" t="n">
-        <v>103.09255802</v>
+        <v>102.01252529</v>
       </c>
       <c r="E123" t="n">
-        <v>100.38794824</v>
+        <v>99.28498759</v>
       </c>
       <c r="F123" t="n">
-        <v>99.80607701</v>
+        <v>98.90577472</v>
       </c>
       <c r="G123" t="n">
-        <v>104.36178064</v>
+        <v>102.92966193</v>
       </c>
       <c r="H123" t="n">
-        <v>101.72968027</v>
+        <v>101.6921229</v>
       </c>
       <c r="I123" t="n">
-        <v>98.83369472</v>
+        <v>99.12759791000001</v>
       </c>
       <c r="J123" t="n">
-        <v>106.9170992</v>
+        <v>104.94190065</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>99.4310419</v>
+        <v>99.68394945</v>
       </c>
       <c r="C124" t="n">
-        <v>103.15670361</v>
+        <v>102.34149232</v>
       </c>
       <c r="D124" t="n">
-        <v>103.20193024</v>
+        <v>102.09434504</v>
       </c>
       <c r="E124" t="n">
-        <v>100.40520317</v>
+        <v>99.49424614</v>
       </c>
       <c r="F124" t="n">
-        <v>99.93170284999999</v>
+        <v>98.97294327</v>
       </c>
       <c r="G124" t="n">
-        <v>104.46761353</v>
+        <v>103.08194093</v>
       </c>
       <c r="H124" t="n">
-        <v>101.74709879</v>
+        <v>101.74517152</v>
       </c>
       <c r="I124" t="n">
-        <v>98.92039572</v>
+        <v>99.04037658999999</v>
       </c>
       <c r="J124" t="n">
-        <v>107.12827618</v>
+        <v>105.01623263</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>99.32487291</v>
+        <v>99.70168604</v>
       </c>
       <c r="C125" t="n">
-        <v>102.24508772</v>
+        <v>102.43277927</v>
       </c>
       <c r="D125" t="n">
-        <v>101.41493076</v>
+        <v>102.24876982</v>
       </c>
       <c r="E125" t="n">
-        <v>97.99798903999999</v>
+        <v>99.65420709999999</v>
       </c>
       <c r="F125" t="n">
-        <v>98.72706556999999</v>
+        <v>99.06884894</v>
       </c>
       <c r="G125" t="n">
-        <v>102.72971342</v>
+        <v>103.45925072</v>
       </c>
       <c r="H125" t="n">
-        <v>101.68306726</v>
+        <v>101.77667429</v>
       </c>
       <c r="I125" t="n">
-        <v>99.77533895000001</v>
+        <v>98.93387844999999</v>
       </c>
       <c r="J125" t="n">
-        <v>103.67021581</v>
+        <v>105.23844892</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>99.63491491000001</v>
+        <v>99.74264923</v>
       </c>
       <c r="C126" t="n">
-        <v>102.28621167</v>
+        <v>102.56665347</v>
       </c>
       <c r="D126" t="n">
-        <v>102.01252529</v>
+        <v>102.38114879</v>
       </c>
       <c r="E126" t="n">
-        <v>99.28498759</v>
+        <v>99.79874058999999</v>
       </c>
       <c r="F126" t="n">
-        <v>98.90577472</v>
+        <v>99.16129798</v>
       </c>
       <c r="G126" t="n">
-        <v>102.92966193</v>
+        <v>103.79141176</v>
       </c>
       <c r="H126" t="n">
-        <v>101.6921229</v>
+        <v>101.80408786</v>
       </c>
       <c r="I126" t="n">
-        <v>99.12759791000001</v>
+        <v>98.89100707999999</v>
       </c>
       <c r="J126" t="n">
-        <v>104.94190065</v>
+        <v>105.38044347</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>99.68394945</v>
+        <v>99.7068067</v>
       </c>
       <c r="C127" t="n">
-        <v>102.34149232</v>
+        <v>102.67384926</v>
       </c>
       <c r="D127" t="n">
-        <v>102.09434504</v>
+        <v>102.45651981</v>
       </c>
       <c r="E127" t="n">
-        <v>99.49424614</v>
+        <v>99.95900113</v>
       </c>
       <c r="F127" t="n">
-        <v>98.97294327</v>
+        <v>99.28262959</v>
       </c>
       <c r="G127" t="n">
-        <v>103.08194093</v>
+        <v>104.01024703</v>
       </c>
       <c r="H127" t="n">
-        <v>101.74517152</v>
+        <v>101.8132221</v>
       </c>
       <c r="I127" t="n">
-        <v>99.04037658999999</v>
+        <v>98.88733046</v>
       </c>
       <c r="J127" t="n">
-        <v>105.01623263</v>
+        <v>105.40675131</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>99.70168604</v>
+        <v>99.62774412</v>
       </c>
       <c r="C128" t="n">
-        <v>102.43277927</v>
+        <v>102.76034011</v>
       </c>
       <c r="D128" t="n">
-        <v>102.24876982</v>
+        <v>102.56528521</v>
       </c>
       <c r="E128" t="n">
-        <v>99.65420709999999</v>
+        <v>100.10160501</v>
       </c>
       <c r="F128" t="n">
-        <v>99.06884894</v>
+        <v>99.41480885999999</v>
       </c>
       <c r="G128" t="n">
-        <v>103.45925072</v>
+        <v>104.12801213</v>
       </c>
       <c r="H128" t="n">
-        <v>101.77667429</v>
+        <v>101.8039917</v>
       </c>
       <c r="I128" t="n">
-        <v>98.93387844999999</v>
+        <v>98.93339222</v>
       </c>
       <c r="J128" t="n">
-        <v>105.23844892</v>
+        <v>105.59374181</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>99.74264923</v>
+        <v>99.57965255000001</v>
       </c>
       <c r="C129" t="n">
-        <v>102.56665347</v>
+        <v>102.82397078</v>
       </c>
       <c r="D129" t="n">
-        <v>102.38114879</v>
+        <v>102.66805105</v>
       </c>
       <c r="E129" t="n">
-        <v>99.79874058999999</v>
+        <v>100.23445845</v>
       </c>
       <c r="F129" t="n">
-        <v>99.16129798</v>
+        <v>99.53958029</v>
       </c>
       <c r="G129" t="n">
-        <v>103.79141176</v>
+        <v>104.17161886</v>
       </c>
       <c r="H129" t="n">
-        <v>101.80408786</v>
+        <v>101.78025636</v>
       </c>
       <c r="I129" t="n">
-        <v>98.89100707999999</v>
+        <v>98.92216591</v>
       </c>
       <c r="J129" t="n">
-        <v>105.38044347</v>
+        <v>105.81523192</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>99.7068067</v>
+        <v>99.5253153</v>
       </c>
       <c r="C130" t="n">
-        <v>102.67384926</v>
+        <v>102.88411117</v>
       </c>
       <c r="D130" t="n">
-        <v>102.45651981</v>
+        <v>102.76065485</v>
       </c>
       <c r="E130" t="n">
-        <v>99.95900113</v>
+        <v>100.3409549</v>
       </c>
       <c r="F130" t="n">
-        <v>99.28262959</v>
+        <v>99.62933321</v>
       </c>
       <c r="G130" t="n">
-        <v>104.01024703</v>
+        <v>104.189431</v>
       </c>
       <c r="H130" t="n">
-        <v>101.8132221</v>
+        <v>101.74235634</v>
       </c>
       <c r="I130" t="n">
-        <v>98.88733046</v>
+        <v>98.85571706</v>
       </c>
       <c r="J130" t="n">
-        <v>105.40675131</v>
+        <v>106.05532124</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>99.62774412</v>
+        <v>99.50175661999999</v>
       </c>
       <c r="C131" t="n">
-        <v>102.76034011</v>
+        <v>102.96978449</v>
       </c>
       <c r="D131" t="n">
-        <v>102.56528521</v>
+        <v>102.90916615</v>
       </c>
       <c r="E131" t="n">
-        <v>100.10160501</v>
+        <v>100.38097442</v>
       </c>
       <c r="F131" t="n">
-        <v>99.41480885999999</v>
+        <v>99.71222281</v>
       </c>
       <c r="G131" t="n">
-        <v>104.12801213</v>
+        <v>104.24608958</v>
       </c>
       <c r="H131" t="n">
-        <v>101.8039917</v>
+        <v>101.72937464</v>
       </c>
       <c r="I131" t="n">
-        <v>98.93339222</v>
+        <v>98.81225499</v>
       </c>
       <c r="J131" t="n">
-        <v>105.59374181</v>
+        <v>106.45120973</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>99.57965255000001</v>
+        <v>99.46238694</v>
       </c>
       <c r="C132" t="n">
-        <v>102.82397078</v>
+        <v>103.07360158</v>
       </c>
       <c r="D132" t="n">
-        <v>102.66805105</v>
+        <v>103.09255802</v>
       </c>
       <c r="E132" t="n">
-        <v>100.23445845</v>
+        <v>100.38794824</v>
       </c>
       <c r="F132" t="n">
-        <v>99.53958029</v>
+        <v>99.80607701</v>
       </c>
       <c r="G132" t="n">
-        <v>104.17161886</v>
+        <v>104.36178064</v>
       </c>
       <c r="H132" t="n">
-        <v>101.78025636</v>
+        <v>101.72968027</v>
       </c>
       <c r="I132" t="n">
-        <v>98.92216591</v>
+        <v>98.83369472</v>
       </c>
       <c r="J132" t="n">
-        <v>105.81523192</v>
+        <v>106.9170992</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>99.5253153</v>
+        <v>99.4310419</v>
       </c>
       <c r="C133" t="n">
-        <v>102.88411117</v>
+        <v>103.15670361</v>
       </c>
       <c r="D133" t="n">
-        <v>102.76065485</v>
+        <v>103.20193024</v>
       </c>
       <c r="E133" t="n">
-        <v>100.3409549</v>
+        <v>100.40520317</v>
       </c>
       <c r="F133" t="n">
-        <v>99.62933321</v>
+        <v>99.93170284999999</v>
       </c>
       <c r="G133" t="n">
-        <v>104.189431</v>
+        <v>104.46761353</v>
       </c>
       <c r="H133" t="n">
-        <v>101.74235634</v>
+        <v>101.74709879</v>
       </c>
       <c r="I133" t="n">
-        <v>98.85571706</v>
+        <v>98.92039572</v>
       </c>
       <c r="J133" t="n">
-        <v>106.05532124</v>
+        <v>107.12827618</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>100.268277</v>
+        <v>99.72010928</v>
       </c>
       <c r="C134" t="n">
-        <v>103.48524421</v>
+        <v>103.25837505</v>
       </c>
       <c r="D134" t="n">
-        <v>105.48170227</v>
+        <v>104.80750868</v>
       </c>
       <c r="E134" t="n">
-        <v>100.31722495</v>
+        <v>100.97179475</v>
       </c>
       <c r="F134" t="n">
-        <v>102.62957928</v>
+        <v>101.62696509</v>
       </c>
       <c r="G134" t="n">
-        <v>105.6975938</v>
+        <v>106.80462564</v>
       </c>
       <c r="H134" t="n">
-        <v>102.81258862</v>
+        <v>101.92464809</v>
       </c>
       <c r="I134" t="n">
-        <v>101.88991733</v>
+        <v>99.56716215</v>
       </c>
       <c r="J134" t="n">
-        <v>112.12945591</v>
+        <v>110.21128929</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>100.26653832</v>
+        <v>99.55787103</v>
       </c>
       <c r="C135" t="n">
-        <v>103.45331525</v>
+        <v>103.11655234</v>
       </c>
       <c r="D135" t="n">
-        <v>105.36143005</v>
+        <v>104.72806188</v>
       </c>
       <c r="E135" t="n">
-        <v>100.28331183</v>
+        <v>100.59488899</v>
       </c>
       <c r="F135" t="n">
-        <v>102.69212971</v>
+        <v>101.58489438</v>
       </c>
       <c r="G135" t="n">
-        <v>105.44108574</v>
+        <v>106.28283059</v>
       </c>
       <c r="H135" t="n">
-        <v>102.94112027</v>
+        <v>101.98661582</v>
       </c>
       <c r="I135" t="n">
-        <v>102.04671705</v>
+        <v>99.86242416</v>
       </c>
       <c r="J135" t="n">
-        <v>111.81884236</v>
+        <v>110.40211965</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>100.24660326</v>
+        <v>99.7</v>
       </c>
       <c r="C136" t="n">
-        <v>103.38665433</v>
+        <v>103.2</v>
       </c>
       <c r="D136" t="n">
-        <v>105.25022403</v>
+        <v>104.9</v>
       </c>
       <c r="E136" t="n">
-        <v>100.2573608</v>
+        <v>100.5</v>
       </c>
       <c r="F136" t="n">
-        <v>102.69621563</v>
+        <v>101.8</v>
       </c>
       <c r="G136" t="n">
-        <v>105.14326023</v>
+        <v>106.3</v>
       </c>
       <c r="H136" t="n">
-        <v>103.04696338</v>
+        <v>102.1</v>
       </c>
       <c r="I136" t="n">
-        <v>102.19085502</v>
+        <v>100.2</v>
       </c>
       <c r="J136" t="n">
-        <v>111.59741069</v>
+        <v>110.8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>99.72010928</v>
+        <v>99.8</v>
       </c>
       <c r="C137" t="n">
-        <v>103.25837505</v>
+        <v>103.2</v>
       </c>
       <c r="D137" t="n">
-        <v>104.80750868</v>
+        <v>105</v>
       </c>
       <c r="E137" t="n">
-        <v>100.97179475</v>
+        <v>100.5</v>
       </c>
       <c r="F137" t="n">
-        <v>101.62696509</v>
+        <v>101.9</v>
       </c>
       <c r="G137" t="n">
-        <v>106.80462564</v>
+        <v>106.2</v>
       </c>
       <c r="H137" t="n">
-        <v>101.92464809</v>
+        <v>102.2</v>
       </c>
       <c r="I137" t="n">
-        <v>99.56716215</v>
+        <v>100.5</v>
       </c>
       <c r="J137" t="n">
-        <v>110.21128929</v>
+        <v>110.9</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>99.55787103</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>103.11655234</v>
+        <v>103.2</v>
       </c>
       <c r="D138" t="n">
-        <v>104.72806188</v>
+        <v>105</v>
       </c>
       <c r="E138" t="n">
-        <v>100.59488899</v>
+        <v>100.5</v>
       </c>
       <c r="F138" t="n">
-        <v>101.58489438</v>
+        <v>102.1</v>
       </c>
       <c r="G138" t="n">
-        <v>106.28283059</v>
+        <v>106.2</v>
       </c>
       <c r="H138" t="n">
-        <v>101.98661582</v>
+        <v>102.3</v>
       </c>
       <c r="I138" t="n">
-        <v>99.86242416</v>
+        <v>100.8</v>
       </c>
       <c r="J138" t="n">
-        <v>110.40211965</v>
+        <v>111</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="C139" t="n">
         <v>103.2</v>
       </c>
       <c r="D139" t="n">
-        <v>104.9</v>
+        <v>105.2</v>
       </c>
       <c r="E139" t="n">
         <v>100.5</v>
       </c>
       <c r="F139" t="n">
-        <v>101.8</v>
+        <v>102.2</v>
       </c>
       <c r="G139" t="n">
-        <v>106.3</v>
+        <v>106.1</v>
       </c>
       <c r="H139" t="n">
-        <v>102.1</v>
+        <v>102.4</v>
       </c>
       <c r="I139" t="n">
-        <v>100.2</v>
+        <v>101</v>
       </c>
       <c r="J139" t="n">
-        <v>110.8</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>99.8</v>
+        <v>100.11881256</v>
       </c>
       <c r="C140" t="n">
-        <v>103.2</v>
+        <v>103.2959721</v>
       </c>
       <c r="D140" t="n">
-        <v>105</v>
+        <v>105.37059727</v>
       </c>
       <c r="E140" t="n">
-        <v>100.5</v>
+        <v>100.46908008</v>
       </c>
       <c r="F140" t="n">
-        <v>101.9</v>
+        <v>102.3318804</v>
       </c>
       <c r="G140" t="n">
-        <v>106.2</v>
+        <v>106.07626854</v>
       </c>
       <c r="H140" t="n">
-        <v>102.2</v>
+        <v>102.49325265</v>
       </c>
       <c r="I140" t="n">
-        <v>100.5</v>
+        <v>101.22132954</v>
       </c>
       <c r="J140" t="n">
-        <v>110.9</v>
+        <v>111.89240295</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>99.90000000000001</v>
+        <v>100.19348444</v>
       </c>
       <c r="C141" t="n">
-        <v>103.2</v>
+        <v>103.40949311</v>
       </c>
       <c r="D141" t="n">
-        <v>105</v>
+        <v>105.44241455</v>
       </c>
       <c r="E141" t="n">
-        <v>100.5</v>
+        <v>100.43710314</v>
       </c>
       <c r="F141" t="n">
-        <v>102.1</v>
+        <v>102.43156694</v>
       </c>
       <c r="G141" t="n">
-        <v>106.2</v>
+        <v>105.96908421</v>
       </c>
       <c r="H141" t="n">
-        <v>102.3</v>
+        <v>102.5596428</v>
       </c>
       <c r="I141" t="n">
-        <v>100.8</v>
+        <v>101.45246859</v>
       </c>
       <c r="J141" t="n">
-        <v>111</v>
+        <v>112.04800931</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>100</v>
+        <v>100.24774873</v>
       </c>
       <c r="C142" t="n">
-        <v>103.2</v>
+        <v>103.49042789</v>
       </c>
       <c r="D142" t="n">
-        <v>105.2</v>
+        <v>105.49424423</v>
       </c>
       <c r="E142" t="n">
-        <v>100.5</v>
+        <v>100.36947935</v>
       </c>
       <c r="F142" t="n">
-        <v>102.2</v>
+        <v>102.53556028</v>
       </c>
       <c r="G142" t="n">
-        <v>106.1</v>
+        <v>105.84885313</v>
       </c>
       <c r="H142" t="n">
-        <v>102.4</v>
+        <v>102.6789424</v>
       </c>
       <c r="I142" t="n">
-        <v>101</v>
+        <v>101.66420473</v>
       </c>
       <c r="J142" t="n">
-        <v>111.5</v>
+        <v>112.17368321</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>100.11881256</v>
+        <v>100.268277</v>
       </c>
       <c r="C143" t="n">
-        <v>103.2959721</v>
+        <v>103.48524421</v>
       </c>
       <c r="D143" t="n">
-        <v>105.37059727</v>
+        <v>105.48170227</v>
       </c>
       <c r="E143" t="n">
-        <v>100.46908008</v>
+        <v>100.31722495</v>
       </c>
       <c r="F143" t="n">
-        <v>102.3318804</v>
+        <v>102.62957928</v>
       </c>
       <c r="G143" t="n">
-        <v>106.07626854</v>
+        <v>105.6975938</v>
       </c>
       <c r="H143" t="n">
-        <v>102.49325265</v>
+        <v>102.81258862</v>
       </c>
       <c r="I143" t="n">
-        <v>101.22132954</v>
+        <v>101.88991733</v>
       </c>
       <c r="J143" t="n">
-        <v>111.89240295</v>
+        <v>112.12945591</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>100.19348444</v>
+        <v>100.26653832</v>
       </c>
       <c r="C144" t="n">
-        <v>103.40949311</v>
+        <v>103.45331525</v>
       </c>
       <c r="D144" t="n">
-        <v>105.44241455</v>
+        <v>105.36143005</v>
       </c>
       <c r="E144" t="n">
-        <v>100.43710314</v>
+        <v>100.28331183</v>
       </c>
       <c r="F144" t="n">
-        <v>102.43156694</v>
+        <v>102.69212971</v>
       </c>
       <c r="G144" t="n">
-        <v>105.96908421</v>
+        <v>105.44108574</v>
       </c>
       <c r="H144" t="n">
-        <v>102.5596428</v>
+        <v>102.94112027</v>
       </c>
       <c r="I144" t="n">
-        <v>101.45246859</v>
+        <v>102.04671705</v>
       </c>
       <c r="J144" t="n">
-        <v>112.04800931</v>
+        <v>111.81884236</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>100.24774873</v>
+        <v>100.24660326</v>
       </c>
       <c r="C145" t="n">
-        <v>103.49042789</v>
+        <v>103.38665433</v>
       </c>
       <c r="D145" t="n">
-        <v>105.49424423</v>
+        <v>105.25022403</v>
       </c>
       <c r="E145" t="n">
-        <v>100.36947935</v>
+        <v>100.2573608</v>
       </c>
       <c r="F145" t="n">
-        <v>102.53556028</v>
+        <v>102.69621563</v>
       </c>
       <c r="G145" t="n">
-        <v>105.84885313</v>
+        <v>105.14326023</v>
       </c>
       <c r="H145" t="n">
-        <v>102.6789424</v>
+        <v>103.04696338</v>
       </c>
       <c r="I145" t="n">
-        <v>101.66420473</v>
+        <v>102.19085502</v>
       </c>
       <c r="J145" t="n">
-        <v>112.17368321</v>
+        <v>111.59741069</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>99.63178838</v>
+        <v>99.86889197000001</v>
       </c>
       <c r="C146" t="n">
-        <v>102.01136549</v>
+        <v>102.49744567</v>
       </c>
       <c r="D146" t="n">
-        <v>102.76304796</v>
+        <v>104.53781401</v>
       </c>
       <c r="E146" t="n">
-        <v>100.27799591</v>
+        <v>100.67463297</v>
       </c>
       <c r="F146" t="n">
-        <v>102.16568994</v>
+        <v>102.84236285</v>
       </c>
       <c r="G146" t="n">
-        <v>102.05882806</v>
+        <v>101.89370778</v>
       </c>
       <c r="H146" t="n">
-        <v>103.25783968</v>
+        <v>104.04828869</v>
       </c>
       <c r="I146" t="n">
-        <v>103.12762174</v>
+        <v>103.23970135</v>
       </c>
       <c r="J146" t="n">
-        <v>105.43560694</v>
+        <v>110.72719545</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>99.65184173</v>
+        <v>99.87519286</v>
       </c>
       <c r="C147" t="n">
-        <v>101.9714966</v>
+        <v>102.58098277</v>
       </c>
       <c r="D147" t="n">
-        <v>102.69984335</v>
+        <v>103.84525266</v>
       </c>
       <c r="E147" t="n">
-        <v>100.32551553</v>
+        <v>99.98333257</v>
       </c>
       <c r="F147" t="n">
-        <v>102.11397865</v>
+        <v>102.79591341</v>
       </c>
       <c r="G147" t="n">
-        <v>102.12808831</v>
+        <v>101.98761434</v>
       </c>
       <c r="H147" t="n">
-        <v>103.09587766</v>
+        <v>104.03453823</v>
       </c>
       <c r="I147" t="n">
-        <v>103.03127101</v>
+        <v>103.50414972</v>
       </c>
       <c r="J147" t="n">
-        <v>105.22409959</v>
+        <v>108.53653723</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>99.66435988000001</v>
+        <v>99.92528162000001</v>
       </c>
       <c r="C148" t="n">
-        <v>101.95098374</v>
+        <v>102.54342036</v>
       </c>
       <c r="D148" t="n">
-        <v>102.68417786</v>
+        <v>103.75922142</v>
       </c>
       <c r="E148" t="n">
-        <v>100.37807042</v>
+        <v>99.96423421999999</v>
       </c>
       <c r="F148" t="n">
-        <v>102.08386939</v>
+        <v>102.65337853</v>
       </c>
       <c r="G148" t="n">
-        <v>102.21916404</v>
+        <v>101.96035579</v>
       </c>
       <c r="H148" t="n">
-        <v>102.93859957</v>
+        <v>103.97242535</v>
       </c>
       <c r="I148" t="n">
-        <v>102.92894695</v>
+        <v>103.53591806</v>
       </c>
       <c r="J148" t="n">
-        <v>105.1402898</v>
+        <v>108.28941752</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>99.86889197000001</v>
+        <v>99.95691404999999</v>
       </c>
       <c r="C149" t="n">
-        <v>102.49744567</v>
+        <v>102.51857708</v>
       </c>
       <c r="D149" t="n">
-        <v>104.53781401</v>
+        <v>103.66354747</v>
       </c>
       <c r="E149" t="n">
-        <v>100.67463297</v>
+        <v>100.02602836</v>
       </c>
       <c r="F149" t="n">
-        <v>102.84236285</v>
+        <v>102.57514693</v>
       </c>
       <c r="G149" t="n">
-        <v>101.89370778</v>
+        <v>101.89835501</v>
       </c>
       <c r="H149" t="n">
-        <v>104.04828869</v>
+        <v>103.9033123</v>
       </c>
       <c r="I149" t="n">
-        <v>103.23970135</v>
+        <v>103.49680074</v>
       </c>
       <c r="J149" t="n">
-        <v>110.72719545</v>
+        <v>108.0283337</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>99.87519286</v>
+        <v>99.89747782000001</v>
       </c>
       <c r="C150" t="n">
-        <v>102.58098277</v>
+        <v>102.42768989</v>
       </c>
       <c r="D150" t="n">
-        <v>103.84525266</v>
+        <v>103.53724885</v>
       </c>
       <c r="E150" t="n">
-        <v>99.98333257</v>
+        <v>100.03933938</v>
       </c>
       <c r="F150" t="n">
-        <v>102.79591341</v>
+        <v>102.47726191</v>
       </c>
       <c r="G150" t="n">
-        <v>101.98761434</v>
+        <v>101.82406122</v>
       </c>
       <c r="H150" t="n">
-        <v>104.03453823</v>
+        <v>103.81960927</v>
       </c>
       <c r="I150" t="n">
-        <v>103.50414972</v>
+        <v>103.36263889</v>
       </c>
       <c r="J150" t="n">
-        <v>108.53653723</v>
+        <v>107.78096281</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>99.92528162000001</v>
+        <v>99.81018059</v>
       </c>
       <c r="C151" t="n">
-        <v>102.54342036</v>
+        <v>102.3351191</v>
       </c>
       <c r="D151" t="n">
-        <v>103.75922142</v>
+        <v>103.31357651</v>
       </c>
       <c r="E151" t="n">
-        <v>99.96423421999999</v>
+        <v>100.05149323</v>
       </c>
       <c r="F151" t="n">
-        <v>102.65337853</v>
+        <v>102.39854669</v>
       </c>
       <c r="G151" t="n">
-        <v>101.96035579</v>
+        <v>101.79999886</v>
       </c>
       <c r="H151" t="n">
-        <v>103.97242535</v>
+        <v>103.7368766</v>
       </c>
       <c r="I151" t="n">
-        <v>103.53591806</v>
+        <v>103.29428319</v>
       </c>
       <c r="J151" t="n">
-        <v>108.28941752</v>
+        <v>107.17393652</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>99.95691404999999</v>
+        <v>99.68832964000001</v>
       </c>
       <c r="C152" t="n">
-        <v>102.51857708</v>
+        <v>102.24590744</v>
       </c>
       <c r="D152" t="n">
-        <v>103.66354747</v>
+        <v>103.10700722</v>
       </c>
       <c r="E152" t="n">
-        <v>100.02602836</v>
+        <v>100.08555219</v>
       </c>
       <c r="F152" t="n">
-        <v>102.57514693</v>
+        <v>102.34753717</v>
       </c>
       <c r="G152" t="n">
-        <v>101.89835501</v>
+        <v>101.86696772</v>
       </c>
       <c r="H152" t="n">
-        <v>103.9033123</v>
+        <v>103.64817321</v>
       </c>
       <c r="I152" t="n">
-        <v>103.49680074</v>
+        <v>103.25180692</v>
       </c>
       <c r="J152" t="n">
-        <v>108.0283337</v>
+        <v>106.55346626</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>99.89747782000001</v>
+        <v>99.60283653</v>
       </c>
       <c r="C153" t="n">
-        <v>102.42768989</v>
+        <v>102.11987525</v>
       </c>
       <c r="D153" t="n">
-        <v>103.53724885</v>
+        <v>102.98349382</v>
       </c>
       <c r="E153" t="n">
-        <v>100.03933938</v>
+        <v>100.11202742</v>
       </c>
       <c r="F153" t="n">
-        <v>102.47726191</v>
+        <v>102.28812226</v>
       </c>
       <c r="G153" t="n">
-        <v>101.82406122</v>
+        <v>101.93063011</v>
       </c>
       <c r="H153" t="n">
-        <v>103.81960927</v>
+        <v>103.56232986</v>
       </c>
       <c r="I153" t="n">
-        <v>103.36263889</v>
+        <v>103.19716481</v>
       </c>
       <c r="J153" t="n">
-        <v>107.78096281</v>
+        <v>106.20532038</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>99.81018059</v>
+        <v>99.59658899999999</v>
       </c>
       <c r="C154" t="n">
-        <v>102.3351191</v>
+        <v>102.0397718</v>
       </c>
       <c r="D154" t="n">
-        <v>103.31357651</v>
+        <v>102.87214375</v>
       </c>
       <c r="E154" t="n">
-        <v>100.05149323</v>
+        <v>100.20181273</v>
       </c>
       <c r="F154" t="n">
-        <v>102.39854669</v>
+        <v>102.22527489</v>
       </c>
       <c r="G154" t="n">
-        <v>101.79999886</v>
+        <v>101.99056123</v>
       </c>
       <c r="H154" t="n">
-        <v>103.7368766</v>
+        <v>103.42005476</v>
       </c>
       <c r="I154" t="n">
-        <v>103.29428319</v>
+        <v>103.19822236</v>
       </c>
       <c r="J154" t="n">
-        <v>107.17393652</v>
+        <v>105.81976591</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>99.68832964000001</v>
+        <v>99.63178838</v>
       </c>
       <c r="C155" t="n">
-        <v>102.24590744</v>
+        <v>102.01136549</v>
       </c>
       <c r="D155" t="n">
-        <v>103.10700722</v>
+        <v>102.76304796</v>
       </c>
       <c r="E155" t="n">
-        <v>100.08555219</v>
+        <v>100.27799591</v>
       </c>
       <c r="F155" t="n">
-        <v>102.34753717</v>
+        <v>102.16568994</v>
       </c>
       <c r="G155" t="n">
-        <v>101.86696772</v>
+        <v>102.05882806</v>
       </c>
       <c r="H155" t="n">
-        <v>103.64817321</v>
+        <v>103.25783968</v>
       </c>
       <c r="I155" t="n">
-        <v>103.25180692</v>
+        <v>103.12762174</v>
       </c>
       <c r="J155" t="n">
-        <v>106.55346626</v>
+        <v>105.43560694</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>99.60283653</v>
+        <v>99.65184173</v>
       </c>
       <c r="C156" t="n">
-        <v>102.11987525</v>
+        <v>101.9714966</v>
       </c>
       <c r="D156" t="n">
-        <v>102.98349382</v>
+        <v>102.69984335</v>
       </c>
       <c r="E156" t="n">
-        <v>100.11202742</v>
+        <v>100.32551553</v>
       </c>
       <c r="F156" t="n">
-        <v>102.28812226</v>
+        <v>102.11397865</v>
       </c>
       <c r="G156" t="n">
-        <v>101.93063011</v>
+        <v>102.12808831</v>
       </c>
       <c r="H156" t="n">
-        <v>103.56232986</v>
+        <v>103.09587766</v>
       </c>
       <c r="I156" t="n">
-        <v>103.19716481</v>
+        <v>103.03127101</v>
       </c>
       <c r="J156" t="n">
-        <v>106.20532038</v>
+        <v>105.22409959</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>99.59658899999999</v>
+        <v>99.66435988000001</v>
       </c>
       <c r="C157" t="n">
-        <v>102.0397718</v>
+        <v>101.95098374</v>
       </c>
       <c r="D157" t="n">
-        <v>102.87214375</v>
+        <v>102.68417786</v>
       </c>
       <c r="E157" t="n">
-        <v>100.20181273</v>
+        <v>100.37807042</v>
       </c>
       <c r="F157" t="n">
-        <v>102.22527489</v>
+        <v>102.08386939</v>
       </c>
       <c r="G157" t="n">
-        <v>101.99056123</v>
+        <v>102.21916404</v>
       </c>
       <c r="H157" t="n">
-        <v>103.42005476</v>
+        <v>102.93859957</v>
       </c>
       <c r="I157" t="n">
-        <v>103.19822236</v>
+        <v>102.92894695</v>
       </c>
       <c r="J157" t="n">
-        <v>105.81976591</v>
+        <v>105.1402898</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>99.43254537999999</v>
+        <v>99.59581451</v>
       </c>
       <c r="C158" t="n">
-        <v>101.24604091</v>
+        <v>101.77716114</v>
       </c>
       <c r="D158" t="n">
-        <v>102.54502803</v>
+        <v>101.9790712</v>
       </c>
       <c r="E158" t="n">
-        <v>101.49017308</v>
+        <v>100.32498728</v>
       </c>
       <c r="F158" t="n">
-        <v>101.57076222</v>
+        <v>101.58760486</v>
       </c>
       <c r="G158" t="n">
-        <v>102.99415564</v>
+        <v>103.17414234</v>
       </c>
       <c r="H158" t="n">
-        <v>100.24558033</v>
+        <v>101.12525129</v>
       </c>
       <c r="I158" t="n">
-        <v>102.2574258</v>
+        <v>102.51361097</v>
       </c>
       <c r="J158" t="n">
-        <v>104.49630552</v>
+        <v>102.72100286</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>99.42468155</v>
+        <v>99.82746888</v>
       </c>
       <c r="C159" t="n">
-        <v>101.19887385</v>
+        <v>101.73145946</v>
       </c>
       <c r="D159" t="n">
-        <v>102.58598316</v>
+        <v>102.58593982</v>
       </c>
       <c r="E159" t="n">
-        <v>101.62007478</v>
+        <v>101.19596369</v>
       </c>
       <c r="F159" t="n">
-        <v>101.55113358</v>
+        <v>101.65588302</v>
       </c>
       <c r="G159" t="n">
-        <v>102.96709937</v>
+        <v>103.08061477</v>
       </c>
       <c r="H159" t="n">
-        <v>100.1905745</v>
+        <v>100.96779819</v>
       </c>
       <c r="I159" t="n">
-        <v>102.22159002</v>
+        <v>102.26603951</v>
       </c>
       <c r="J159" t="n">
-        <v>104.62601198</v>
+        <v>104.3104558</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>99.45604082</v>
+        <v>99.73752915</v>
       </c>
       <c r="C160" t="n">
-        <v>101.15386144</v>
+        <v>101.68556431</v>
       </c>
       <c r="D160" t="n">
-        <v>102.5785615</v>
+        <v>102.39981554</v>
       </c>
       <c r="E160" t="n">
-        <v>101.73295917</v>
+        <v>101.37893663</v>
       </c>
       <c r="F160" t="n">
-        <v>101.53376945</v>
+        <v>101.6848261</v>
       </c>
       <c r="G160" t="n">
-        <v>102.95952385</v>
+        <v>103.11209003</v>
       </c>
       <c r="H160" t="n">
-        <v>100.13577677</v>
+        <v>100.88646591</v>
       </c>
       <c r="I160" t="n">
-        <v>102.20066205</v>
+        <v>102.23349196</v>
       </c>
       <c r="J160" t="n">
-        <v>104.57837779</v>
+        <v>103.71010204</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>99.59581451</v>
+        <v>99.482646</v>
       </c>
       <c r="C161" t="n">
-        <v>101.77716114</v>
+        <v>101.5971635</v>
       </c>
       <c r="D161" t="n">
-        <v>101.9790712</v>
+        <v>102.392195</v>
       </c>
       <c r="E161" t="n">
-        <v>100.32498728</v>
+        <v>101.39883243</v>
       </c>
       <c r="F161" t="n">
-        <v>101.58760486</v>
+        <v>101.67795469</v>
       </c>
       <c r="G161" t="n">
-        <v>103.17414234</v>
+        <v>103.12505833</v>
       </c>
       <c r="H161" t="n">
-        <v>101.12525129</v>
+        <v>100.78627245</v>
       </c>
       <c r="I161" t="n">
-        <v>102.51361097</v>
+        <v>102.27234737</v>
       </c>
       <c r="J161" t="n">
-        <v>102.72100286</v>
+        <v>103.78303671</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>99.82746888</v>
+        <v>99.31469866</v>
       </c>
       <c r="C162" t="n">
-        <v>101.73145946</v>
+        <v>101.53622435</v>
       </c>
       <c r="D162" t="n">
-        <v>102.58593982</v>
+        <v>102.32398449</v>
       </c>
       <c r="E162" t="n">
-        <v>101.19596369</v>
+        <v>101.36222996</v>
       </c>
       <c r="F162" t="n">
-        <v>101.65588302</v>
+        <v>101.67327314</v>
       </c>
       <c r="G162" t="n">
-        <v>103.08061477</v>
+        <v>103.14771267</v>
       </c>
       <c r="H162" t="n">
-        <v>100.96779819</v>
+        <v>100.66991639</v>
       </c>
       <c r="I162" t="n">
-        <v>102.26603951</v>
+        <v>102.31161344</v>
       </c>
       <c r="J162" t="n">
-        <v>104.3104558</v>
+        <v>103.64999365</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>99.73752915</v>
+        <v>99.27950792</v>
       </c>
       <c r="C163" t="n">
-        <v>101.68556431</v>
+        <v>101.47394981</v>
       </c>
       <c r="D163" t="n">
-        <v>102.39981554</v>
+        <v>102.37298103</v>
       </c>
       <c r="E163" t="n">
-        <v>101.37893663</v>
+        <v>101.34865712</v>
       </c>
       <c r="F163" t="n">
-        <v>101.6848261</v>
+        <v>101.65386205</v>
       </c>
       <c r="G163" t="n">
-        <v>103.11209003</v>
+        <v>103.16530035</v>
       </c>
       <c r="H163" t="n">
-        <v>100.88646591</v>
+        <v>100.55619495</v>
       </c>
       <c r="I163" t="n">
-        <v>102.23349196</v>
+        <v>102.28755259</v>
       </c>
       <c r="J163" t="n">
-        <v>103.71010204</v>
+        <v>103.84834483</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>99.482646</v>
+        <v>99.35095753</v>
       </c>
       <c r="C164" t="n">
-        <v>101.5971635</v>
+        <v>101.40667597</v>
       </c>
       <c r="D164" t="n">
-        <v>102.392195</v>
+        <v>102.40438844</v>
       </c>
       <c r="E164" t="n">
-        <v>101.39883243</v>
+        <v>101.33197511</v>
       </c>
       <c r="F164" t="n">
-        <v>101.67795469</v>
+        <v>101.61880535</v>
       </c>
       <c r="G164" t="n">
-        <v>103.12505833</v>
+        <v>103.12078781</v>
       </c>
       <c r="H164" t="n">
-        <v>100.78627245</v>
+        <v>100.46592518</v>
       </c>
       <c r="I164" t="n">
-        <v>102.27234737</v>
+        <v>102.26012415</v>
       </c>
       <c r="J164" t="n">
-        <v>103.78303671</v>
+        <v>103.99686776</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>99.31469866</v>
+        <v>99.42199123</v>
       </c>
       <c r="C165" t="n">
-        <v>101.53622435</v>
+        <v>101.35537348</v>
       </c>
       <c r="D165" t="n">
-        <v>102.32398449</v>
+        <v>102.41171176</v>
       </c>
       <c r="E165" t="n">
-        <v>101.36222996</v>
+        <v>101.30547117</v>
       </c>
       <c r="F165" t="n">
-        <v>101.67327314</v>
+        <v>101.59274925</v>
       </c>
       <c r="G165" t="n">
-        <v>103.14771267</v>
+        <v>103.06781456</v>
       </c>
       <c r="H165" t="n">
-        <v>100.66991639</v>
+        <v>100.39228777</v>
       </c>
       <c r="I165" t="n">
-        <v>102.31161344</v>
+        <v>102.25047318</v>
       </c>
       <c r="J165" t="n">
-        <v>103.64999365</v>
+        <v>104.0644066</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>99.27950792</v>
+        <v>99.45343477</v>
       </c>
       <c r="C166" t="n">
-        <v>101.47394981</v>
+        <v>101.30212442</v>
       </c>
       <c r="D166" t="n">
-        <v>102.37298103</v>
+        <v>102.47577317</v>
       </c>
       <c r="E166" t="n">
-        <v>101.34865712</v>
+        <v>101.37666721</v>
       </c>
       <c r="F166" t="n">
-        <v>101.65386205</v>
+        <v>101.57147732</v>
       </c>
       <c r="G166" t="n">
-        <v>103.16530035</v>
+        <v>103.02993362</v>
       </c>
       <c r="H166" t="n">
-        <v>100.55619495</v>
+        <v>100.31118843</v>
       </c>
       <c r="I166" t="n">
-        <v>102.28755259</v>
+        <v>102.24230931</v>
       </c>
       <c r="J166" t="n">
-        <v>103.84834483</v>
+        <v>104.27604755</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>99.35095753</v>
+        <v>99.43254537999999</v>
       </c>
       <c r="C167" t="n">
-        <v>101.40667597</v>
+        <v>101.24604091</v>
       </c>
       <c r="D167" t="n">
-        <v>102.40438844</v>
+        <v>102.54502803</v>
       </c>
       <c r="E167" t="n">
-        <v>101.33197511</v>
+        <v>101.49017308</v>
       </c>
       <c r="F167" t="n">
-        <v>101.61880535</v>
+        <v>101.57076222</v>
       </c>
       <c r="G167" t="n">
-        <v>103.12078781</v>
+        <v>102.99415564</v>
       </c>
       <c r="H167" t="n">
-        <v>100.46592518</v>
+        <v>100.24558033</v>
       </c>
       <c r="I167" t="n">
-        <v>102.26012415</v>
+        <v>102.2574258</v>
       </c>
       <c r="J167" t="n">
-        <v>103.99686776</v>
+        <v>104.49630552</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>99.42199123</v>
+        <v>99.42468155</v>
       </c>
       <c r="C168" t="n">
-        <v>101.35537348</v>
+        <v>101.19887385</v>
       </c>
       <c r="D168" t="n">
-        <v>102.41171176</v>
+        <v>102.58598316</v>
       </c>
       <c r="E168" t="n">
-        <v>101.30547117</v>
+        <v>101.62007478</v>
       </c>
       <c r="F168" t="n">
-        <v>101.59274925</v>
+        <v>101.55113358</v>
       </c>
       <c r="G168" t="n">
-        <v>103.06781456</v>
+        <v>102.96709937</v>
       </c>
       <c r="H168" t="n">
-        <v>100.39228777</v>
+        <v>100.1905745</v>
       </c>
       <c r="I168" t="n">
-        <v>102.25047318</v>
+        <v>102.22159002</v>
       </c>
       <c r="J168" t="n">
-        <v>104.0644066</v>
+        <v>104.62601198</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>99.45343477</v>
+        <v>99.45604082</v>
       </c>
       <c r="C169" t="n">
-        <v>101.30212442</v>
+        <v>101.15386144</v>
       </c>
       <c r="D169" t="n">
-        <v>102.47577317</v>
+        <v>102.5785615</v>
       </c>
       <c r="E169" t="n">
-        <v>101.37666721</v>
+        <v>101.73295917</v>
       </c>
       <c r="F169" t="n">
-        <v>101.57147732</v>
+        <v>101.53376945</v>
       </c>
       <c r="G169" t="n">
-        <v>103.02993362</v>
+        <v>102.95952385</v>
       </c>
       <c r="H169" t="n">
-        <v>100.31118843</v>
+        <v>100.13577677</v>
       </c>
       <c r="I169" t="n">
-        <v>102.24230931</v>
+        <v>102.20066205</v>
       </c>
       <c r="J169" t="n">
-        <v>104.27604755</v>
+        <v>104.57837779</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>100.0257943</v>
+        <v>100.12997283</v>
       </c>
       <c r="C170" t="n">
-        <v>101.15954485</v>
+        <v>100.88114099</v>
       </c>
       <c r="D170" t="n">
-        <v>102.16079887</v>
+        <v>102.57529485</v>
       </c>
       <c r="E170" t="n">
-        <v>102.14811775</v>
+        <v>103.54791674</v>
       </c>
       <c r="F170" t="n">
-        <v>101.217964</v>
+        <v>101.49140485</v>
       </c>
       <c r="G170" t="n">
-        <v>102.25870219</v>
+        <v>102.91547748</v>
       </c>
       <c r="H170" t="n">
-        <v>99.29082767</v>
+        <v>99.1954669</v>
       </c>
       <c r="I170" t="n">
-        <v>102.39632856</v>
+        <v>101.86458962</v>
       </c>
       <c r="J170" t="n">
-        <v>103.37208042</v>
+        <v>103.90090502</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>99.94918917</v>
+        <v>99.80896554</v>
       </c>
       <c r="C171" t="n">
-        <v>101.16752483</v>
+        <v>100.87043971</v>
       </c>
       <c r="D171" t="n">
-        <v>102.09990853</v>
+        <v>102.31183891</v>
       </c>
       <c r="E171" t="n">
-        <v>102.04321269</v>
+        <v>102.82069337</v>
       </c>
       <c r="F171" t="n">
-        <v>101.2128006</v>
+        <v>101.35907815</v>
       </c>
       <c r="G171" t="n">
-        <v>102.18427507</v>
+        <v>102.91332837</v>
       </c>
       <c r="H171" t="n">
-        <v>99.28020578</v>
+        <v>99.24483748</v>
       </c>
       <c r="I171" t="n">
-        <v>102.42022708</v>
+        <v>102.05910058</v>
       </c>
       <c r="J171" t="n">
-        <v>103.28439405</v>
+        <v>103.41999534</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>99.83500692</v>
+        <v>99.71152635</v>
       </c>
       <c r="C172" t="n">
-        <v>101.19548922</v>
+        <v>100.92578567</v>
       </c>
       <c r="D172" t="n">
-        <v>102.05518757</v>
+        <v>102.36979517</v>
       </c>
       <c r="E172" t="n">
-        <v>101.94409227</v>
+        <v>102.5942814</v>
       </c>
       <c r="F172" t="n">
-        <v>101.20315119</v>
+        <v>101.31902149</v>
       </c>
       <c r="G172" t="n">
-        <v>102.09327591</v>
+        <v>102.79006032</v>
       </c>
       <c r="H172" t="n">
-        <v>99.27322784</v>
+        <v>99.26222178</v>
       </c>
       <c r="I172" t="n">
-        <v>102.44604093</v>
+        <v>102.1444447</v>
       </c>
       <c r="J172" t="n">
-        <v>103.25943168</v>
+        <v>103.74825898</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>100.12997283</v>
+        <v>99.77891391</v>
       </c>
       <c r="C173" t="n">
-        <v>100.88114099</v>
+        <v>100.96500521</v>
       </c>
       <c r="D173" t="n">
-        <v>102.57529485</v>
+        <v>102.24196037</v>
       </c>
       <c r="E173" t="n">
-        <v>103.54791674</v>
+        <v>102.44640057</v>
       </c>
       <c r="F173" t="n">
-        <v>101.49140485</v>
+        <v>101.2933075</v>
       </c>
       <c r="G173" t="n">
-        <v>102.91547748</v>
+        <v>102.69291249</v>
       </c>
       <c r="H173" t="n">
-        <v>99.1954669</v>
+        <v>99.26834208</v>
       </c>
       <c r="I173" t="n">
-        <v>101.86458962</v>
+        <v>102.17747448</v>
       </c>
       <c r="J173" t="n">
-        <v>103.90090502</v>
+        <v>103.43446115</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>99.80896554</v>
+        <v>99.92582906</v>
       </c>
       <c r="C174" t="n">
-        <v>100.87043971</v>
+        <v>101.00973442</v>
       </c>
       <c r="D174" t="n">
-        <v>102.31183891</v>
+        <v>102.29873728</v>
       </c>
       <c r="E174" t="n">
-        <v>102.82069337</v>
+        <v>102.39774358</v>
       </c>
       <c r="F174" t="n">
-        <v>101.35907815</v>
+        <v>101.26888506</v>
       </c>
       <c r="G174" t="n">
-        <v>102.91332837</v>
+        <v>102.62135758</v>
       </c>
       <c r="H174" t="n">
-        <v>99.24483748</v>
+        <v>99.28588983</v>
       </c>
       <c r="I174" t="n">
-        <v>102.05910058</v>
+        <v>102.2407871</v>
       </c>
       <c r="J174" t="n">
-        <v>103.41999534</v>
+        <v>103.59518713</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>99.71152635</v>
+        <v>100.0334505</v>
       </c>
       <c r="C175" t="n">
-        <v>100.92578567</v>
+        <v>101.05376292</v>
       </c>
       <c r="D175" t="n">
-        <v>102.36979517</v>
+        <v>102.31562179</v>
       </c>
       <c r="E175" t="n">
-        <v>102.5942814</v>
+        <v>102.35939957</v>
       </c>
       <c r="F175" t="n">
-        <v>101.31902149</v>
+        <v>101.26501863</v>
       </c>
       <c r="G175" t="n">
-        <v>102.79006032</v>
+        <v>102.56110568</v>
       </c>
       <c r="H175" t="n">
-        <v>99.26222178</v>
+        <v>99.30009242</v>
       </c>
       <c r="I175" t="n">
-        <v>102.1444447</v>
+        <v>102.30974642</v>
       </c>
       <c r="J175" t="n">
-        <v>103.74825898</v>
+        <v>103.63259291</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>99.77891391</v>
+        <v>100.11939622</v>
       </c>
       <c r="C176" t="n">
-        <v>100.96500521</v>
+        <v>101.11084651</v>
       </c>
       <c r="D176" t="n">
-        <v>102.24196037</v>
+        <v>102.31818554</v>
       </c>
       <c r="E176" t="n">
-        <v>102.44640057</v>
+        <v>102.3417963</v>
       </c>
       <c r="F176" t="n">
-        <v>101.2933075</v>
+        <v>101.24821545</v>
       </c>
       <c r="G176" t="n">
-        <v>102.69291249</v>
+        <v>102.48207233</v>
       </c>
       <c r="H176" t="n">
-        <v>99.26834208</v>
+        <v>99.31082172000001</v>
       </c>
       <c r="I176" t="n">
-        <v>102.17747448</v>
+        <v>102.36269218</v>
       </c>
       <c r="J176" t="n">
-        <v>103.43446115</v>
+        <v>103.63986238</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>99.92582906</v>
+        <v>100.12153602</v>
       </c>
       <c r="C177" t="n">
-        <v>101.00973442</v>
+        <v>101.14113533</v>
       </c>
       <c r="D177" t="n">
-        <v>102.29873728</v>
+        <v>102.28281231</v>
       </c>
       <c r="E177" t="n">
-        <v>102.39774358</v>
+        <v>102.29825398</v>
       </c>
       <c r="F177" t="n">
-        <v>101.26888506</v>
+        <v>101.23017388</v>
       </c>
       <c r="G177" t="n">
-        <v>102.62135758</v>
+        <v>102.40259909</v>
       </c>
       <c r="H177" t="n">
-        <v>99.28588983</v>
+        <v>99.29918275</v>
       </c>
       <c r="I177" t="n">
-        <v>102.2407871</v>
+        <v>102.39964944</v>
       </c>
       <c r="J177" t="n">
-        <v>103.59518713</v>
+        <v>103.57953447</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>100.0334505</v>
+        <v>100.06692839</v>
       </c>
       <c r="C178" t="n">
-        <v>101.05376292</v>
+        <v>101.14545998</v>
       </c>
       <c r="D178" t="n">
-        <v>102.31562179</v>
+        <v>102.21701776</v>
       </c>
       <c r="E178" t="n">
-        <v>102.35939957</v>
+        <v>102.26586894</v>
       </c>
       <c r="F178" t="n">
-        <v>101.26501863</v>
+        <v>101.21888935</v>
       </c>
       <c r="G178" t="n">
-        <v>102.56110568</v>
+        <v>102.31941421</v>
       </c>
       <c r="H178" t="n">
-        <v>99.30009242</v>
+        <v>99.29202323</v>
       </c>
       <c r="I178" t="n">
-        <v>102.30974642</v>
+        <v>102.40419493</v>
       </c>
       <c r="J178" t="n">
-        <v>103.63259291</v>
+        <v>103.45523788</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>100.11939622</v>
+        <v>100.0257943</v>
       </c>
       <c r="C179" t="n">
-        <v>101.11084651</v>
+        <v>101.15954485</v>
       </c>
       <c r="D179" t="n">
-        <v>102.31818554</v>
+        <v>102.16079887</v>
       </c>
       <c r="E179" t="n">
-        <v>102.3417963</v>
+        <v>102.14811775</v>
       </c>
       <c r="F179" t="n">
-        <v>101.24821545</v>
+        <v>101.217964</v>
       </c>
       <c r="G179" t="n">
-        <v>102.48207233</v>
+        <v>102.25870219</v>
       </c>
       <c r="H179" t="n">
-        <v>99.31082172000001</v>
+        <v>99.29082767</v>
       </c>
       <c r="I179" t="n">
-        <v>102.36269218</v>
+        <v>102.39632856</v>
       </c>
       <c r="J179" t="n">
-        <v>103.63986238</v>
+        <v>103.37208042</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>100.12153602</v>
+        <v>99.94918917</v>
       </c>
       <c r="C180" t="n">
-        <v>101.14113533</v>
+        <v>101.16752483</v>
       </c>
       <c r="D180" t="n">
-        <v>102.28281231</v>
+        <v>102.09990853</v>
       </c>
       <c r="E180" t="n">
-        <v>102.29825398</v>
+        <v>102.04321269</v>
       </c>
       <c r="F180" t="n">
-        <v>101.23017388</v>
+        <v>101.2128006</v>
       </c>
       <c r="G180" t="n">
-        <v>102.40259909</v>
+        <v>102.18427507</v>
       </c>
       <c r="H180" t="n">
-        <v>99.29918275</v>
+        <v>99.28020578</v>
       </c>
       <c r="I180" t="n">
-        <v>102.39964944</v>
+        <v>102.42022708</v>
       </c>
       <c r="J180" t="n">
-        <v>103.57953447</v>
+        <v>103.28439405</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>100.06692839</v>
+        <v>99.83500692</v>
       </c>
       <c r="C181" t="n">
-        <v>101.14545998</v>
+        <v>101.19548922</v>
       </c>
       <c r="D181" t="n">
-        <v>102.21701776</v>
+        <v>102.05518757</v>
       </c>
       <c r="E181" t="n">
-        <v>102.26586894</v>
+        <v>101.94409227</v>
       </c>
       <c r="F181" t="n">
-        <v>101.21888935</v>
+        <v>101.20315119</v>
       </c>
       <c r="G181" t="n">
-        <v>102.31941421</v>
+        <v>102.09327591</v>
       </c>
       <c r="H181" t="n">
-        <v>99.29202323</v>
+        <v>99.27322784</v>
       </c>
       <c r="I181" t="n">
-        <v>102.40419493</v>
+        <v>102.44604093</v>
       </c>
       <c r="J181" t="n">
-        <v>103.45523788</v>
+        <v>103.25943168</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>98.293029</v>
+        <v>97.79738458999999</v>
       </c>
       <c r="C182" t="n">
-        <v>101.74064266</v>
+        <v>101.55892986</v>
       </c>
       <c r="D182" t="n">
-        <v>101.4700655</v>
+        <v>100.80303171</v>
       </c>
       <c r="E182" t="n">
-        <v>101.50858851</v>
+        <v>100.16558236</v>
       </c>
       <c r="F182" t="n">
-        <v>101.07612241</v>
+        <v>100.83723158</v>
       </c>
       <c r="G182" t="n">
-        <v>101.02098835</v>
+        <v>100.9527856</v>
       </c>
       <c r="H182" t="n">
-        <v>101.71194704</v>
+        <v>99.54775995</v>
       </c>
       <c r="I182" t="n">
-        <v>102.9869025</v>
+        <v>102.99575992</v>
       </c>
       <c r="J182" t="n">
-        <v>102.2672928</v>
+        <v>101.18318856</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>98.32649464000001</v>
+        <v>98.10600784</v>
       </c>
       <c r="C183" t="n">
-        <v>101.80467161</v>
+        <v>101.66960488</v>
       </c>
       <c r="D183" t="n">
-        <v>101.47685015</v>
+        <v>101.15366255</v>
       </c>
       <c r="E183" t="n">
-        <v>101.47039933</v>
+        <v>101.07536476</v>
       </c>
       <c r="F183" t="n">
-        <v>101.06065308</v>
+        <v>101.16305109</v>
       </c>
       <c r="G183" t="n">
-        <v>101.03295934</v>
+        <v>100.81469047</v>
       </c>
       <c r="H183" t="n">
-        <v>101.89221127</v>
+        <v>99.45375825000001</v>
       </c>
       <c r="I183" t="n">
-        <v>102.92032449</v>
+        <v>103.04536453</v>
       </c>
       <c r="J183" t="n">
-        <v>102.27203157</v>
+        <v>101.79986307</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>98.36631740999999</v>
+        <v>98.24257596</v>
       </c>
       <c r="C184" t="n">
-        <v>101.85268753</v>
+        <v>101.58724016</v>
       </c>
       <c r="D184" t="n">
-        <v>101.49489456</v>
+        <v>101.24300673</v>
       </c>
       <c r="E184" t="n">
-        <v>101.4494726</v>
+        <v>101.27277635</v>
       </c>
       <c r="F184" t="n">
-        <v>101.04815364</v>
+        <v>101.17671449</v>
       </c>
       <c r="G184" t="n">
-        <v>101.04725763</v>
+        <v>100.82473252</v>
       </c>
       <c r="H184" t="n">
-        <v>102.04138932</v>
+        <v>99.44753780000001</v>
       </c>
       <c r="I184" t="n">
-        <v>102.84790413</v>
+        <v>103.10458494</v>
       </c>
       <c r="J184" t="n">
-        <v>102.30801585</v>
+        <v>101.95357919</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>97.79738458999999</v>
+        <v>98.31390488</v>
       </c>
       <c r="C185" t="n">
-        <v>101.55892986</v>
+        <v>101.59808313</v>
       </c>
       <c r="D185" t="n">
-        <v>100.80303171</v>
+        <v>101.3232837</v>
       </c>
       <c r="E185" t="n">
-        <v>100.16558236</v>
+        <v>101.38753868</v>
       </c>
       <c r="F185" t="n">
-        <v>100.83723158</v>
+        <v>101.16812178</v>
       </c>
       <c r="G185" t="n">
-        <v>100.9527856</v>
+        <v>100.84246213</v>
       </c>
       <c r="H185" t="n">
-        <v>99.54775995</v>
+        <v>99.45982256000001</v>
       </c>
       <c r="I185" t="n">
-        <v>102.99575992</v>
+        <v>103.08605073</v>
       </c>
       <c r="J185" t="n">
-        <v>101.18318856</v>
+        <v>102.12491642</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>98.10600784</v>
+        <v>98.39296483</v>
       </c>
       <c r="C186" t="n">
-        <v>101.66960488</v>
+        <v>101.60141152</v>
       </c>
       <c r="D186" t="n">
-        <v>101.15366255</v>
+        <v>101.31757633</v>
       </c>
       <c r="E186" t="n">
-        <v>101.07536476</v>
+        <v>101.46243423</v>
       </c>
       <c r="F186" t="n">
-        <v>101.16305109</v>
+        <v>101.14453381</v>
       </c>
       <c r="G186" t="n">
-        <v>100.81469047</v>
+        <v>100.88484984</v>
       </c>
       <c r="H186" t="n">
-        <v>99.45375825000001</v>
+        <v>99.89226743</v>
       </c>
       <c r="I186" t="n">
-        <v>103.04536453</v>
+        <v>103.06263951</v>
       </c>
       <c r="J186" t="n">
-        <v>101.79986307</v>
+        <v>102.0119105</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>98.24257596</v>
+        <v>98.42190764999999</v>
       </c>
       <c r="C187" t="n">
-        <v>101.58724016</v>
+        <v>101.63076855</v>
       </c>
       <c r="D187" t="n">
-        <v>101.24300673</v>
+        <v>101.33943421</v>
       </c>
       <c r="E187" t="n">
-        <v>101.27277635</v>
+        <v>101.52122802</v>
       </c>
       <c r="F187" t="n">
-        <v>101.17671449</v>
+        <v>101.12668368</v>
       </c>
       <c r="G187" t="n">
-        <v>100.82473252</v>
+        <v>100.92694527</v>
       </c>
       <c r="H187" t="n">
-        <v>99.44753780000001</v>
+        <v>100.46370318</v>
       </c>
       <c r="I187" t="n">
-        <v>103.10458494</v>
+        <v>103.05572627</v>
       </c>
       <c r="J187" t="n">
-        <v>101.95357919</v>
+        <v>101.98020778</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>98.31390488</v>
+        <v>98.39856238</v>
       </c>
       <c r="C188" t="n">
-        <v>101.59808313</v>
+        <v>101.64896087</v>
       </c>
       <c r="D188" t="n">
-        <v>101.3232837</v>
+        <v>101.39147476</v>
       </c>
       <c r="E188" t="n">
-        <v>101.38753868</v>
+        <v>101.55065985</v>
       </c>
       <c r="F188" t="n">
-        <v>101.16812178</v>
+        <v>101.11726337</v>
       </c>
       <c r="G188" t="n">
-        <v>100.84246213</v>
+        <v>100.96572331</v>
       </c>
       <c r="H188" t="n">
-        <v>99.45982256000001</v>
+        <v>100.887197</v>
       </c>
       <c r="I188" t="n">
-        <v>103.08605073</v>
+        <v>103.05757681</v>
       </c>
       <c r="J188" t="n">
-        <v>102.12491642</v>
+        <v>102.07758581</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>98.39296483</v>
+        <v>98.34593207</v>
       </c>
       <c r="C189" t="n">
-        <v>101.60141152</v>
+        <v>101.67059331</v>
       </c>
       <c r="D189" t="n">
-        <v>101.31757633</v>
+        <v>101.46965574</v>
       </c>
       <c r="E189" t="n">
-        <v>101.46243423</v>
+        <v>101.59336462</v>
       </c>
       <c r="F189" t="n">
-        <v>101.14453381</v>
+        <v>101.1041335</v>
       </c>
       <c r="G189" t="n">
-        <v>100.88484984</v>
+        <v>100.99537687</v>
       </c>
       <c r="H189" t="n">
-        <v>99.89226743</v>
+        <v>101.22803534</v>
       </c>
       <c r="I189" t="n">
-        <v>103.06263951</v>
+        <v>103.05745828</v>
       </c>
       <c r="J189" t="n">
-        <v>102.0119105</v>
+        <v>102.26806108</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>98.42190764999999</v>
+        <v>98.30191926000001</v>
       </c>
       <c r="C190" t="n">
-        <v>101.63076855</v>
+        <v>101.70411889</v>
       </c>
       <c r="D190" t="n">
-        <v>101.33943421</v>
+        <v>101.48901226</v>
       </c>
       <c r="E190" t="n">
-        <v>101.52122802</v>
+        <v>101.56251057</v>
       </c>
       <c r="F190" t="n">
-        <v>101.12668368</v>
+        <v>101.0991152</v>
       </c>
       <c r="G190" t="n">
-        <v>100.92694527</v>
+        <v>101.02003055</v>
       </c>
       <c r="H190" t="n">
-        <v>100.46370318</v>
+        <v>101.49749389</v>
       </c>
       <c r="I190" t="n">
-        <v>103.05572627</v>
+        <v>103.03923089</v>
       </c>
       <c r="J190" t="n">
-        <v>101.98020778</v>
+        <v>102.31215561</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>98.39856238</v>
+        <v>98.293029</v>
       </c>
       <c r="C191" t="n">
-        <v>101.64896087</v>
+        <v>101.74064266</v>
       </c>
       <c r="D191" t="n">
-        <v>101.39147476</v>
+        <v>101.4700655</v>
       </c>
       <c r="E191" t="n">
-        <v>101.55065985</v>
+        <v>101.50858851</v>
       </c>
       <c r="F191" t="n">
-        <v>101.11726337</v>
+        <v>101.07612241</v>
       </c>
       <c r="G191" t="n">
-        <v>100.96572331</v>
+        <v>101.02098835</v>
       </c>
       <c r="H191" t="n">
-        <v>100.887197</v>
+        <v>101.71194704</v>
       </c>
       <c r="I191" t="n">
-        <v>103.05757681</v>
+        <v>102.9869025</v>
       </c>
       <c r="J191" t="n">
-        <v>102.07758581</v>
+        <v>102.2672928</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>98.34593207</v>
+        <v>98.32649464000001</v>
       </c>
       <c r="C192" t="n">
-        <v>101.67059331</v>
+        <v>101.80467161</v>
       </c>
       <c r="D192" t="n">
-        <v>101.46965574</v>
+        <v>101.47685015</v>
       </c>
       <c r="E192" t="n">
-        <v>101.59336462</v>
+        <v>101.47039933</v>
       </c>
       <c r="F192" t="n">
-        <v>101.1041335</v>
+        <v>101.06065308</v>
       </c>
       <c r="G192" t="n">
-        <v>100.99537687</v>
+        <v>101.03295934</v>
       </c>
       <c r="H192" t="n">
-        <v>101.22803534</v>
+        <v>101.89221127</v>
       </c>
       <c r="I192" t="n">
-        <v>103.05745828</v>
+        <v>102.92032449</v>
       </c>
       <c r="J192" t="n">
-        <v>102.26806108</v>
+        <v>102.27203157</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>98.30191926000001</v>
+        <v>98.36631740999999</v>
       </c>
       <c r="C193" t="n">
-        <v>101.70411889</v>
+        <v>101.85268753</v>
       </c>
       <c r="D193" t="n">
-        <v>101.48901226</v>
+        <v>101.49489456</v>
       </c>
       <c r="E193" t="n">
-        <v>101.56251057</v>
+        <v>101.4494726</v>
       </c>
       <c r="F193" t="n">
-        <v>101.0991152</v>
+        <v>101.04815364</v>
       </c>
       <c r="G193" t="n">
-        <v>101.02003055</v>
+        <v>101.04725763</v>
       </c>
       <c r="H193" t="n">
-        <v>101.49749389</v>
+        <v>102.04138932</v>
       </c>
       <c r="I193" t="n">
-        <v>103.03923089</v>
+        <v>102.84790413</v>
       </c>
       <c r="J193" t="n">
-        <v>102.31215561</v>
+        <v>102.30801585</v>
       </c>
     </row>
   </sheetData>
